--- a/teaching/traditional_assets/database/data/turkey/turkey_transportation.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_transportation.xlsx
@@ -644,10 +644,10 @@
         <v>-0.6990909090909091</v>
       </c>
       <c r="X2">
-        <v>0.159085794437365</v>
+        <v>0.1597727383477097</v>
       </c>
       <c r="Y2">
-        <v>-0.8581767035282741</v>
+        <v>-0.8588636474386189</v>
       </c>
       <c r="Z2">
         <v>0.5038520801232665</v>
@@ -656,10 +656,10 @@
         <v>0.1566512583461736</v>
       </c>
       <c r="AB2">
-        <v>0.1081397897064224</v>
+        <v>0.1056627717224558</v>
       </c>
       <c r="AC2">
-        <v>0.04851146863975114</v>
+        <v>0.0509884866237178</v>
       </c>
       <c r="AD2">
         <v>181.2</v>
@@ -772,10 +772,10 @@
         <v>-0.6990909090909091</v>
       </c>
       <c r="X3">
-        <v>0.159085794437365</v>
+        <v>0.1597727383477097</v>
       </c>
       <c r="Y3">
-        <v>-0.8581767035282741</v>
+        <v>-0.8588636474386189</v>
       </c>
       <c r="Z3">
         <v>0.5038520801232665</v>
@@ -784,10 +784,10 @@
         <v>0.1566512583461736</v>
       </c>
       <c r="AB3">
-        <v>0.1081397897064224</v>
+        <v>0.1056627717224558</v>
       </c>
       <c r="AC3">
-        <v>0.04851146863975114</v>
+        <v>0.0509884866237178</v>
       </c>
       <c r="AD3">
         <v>181.2</v>
@@ -1087,37 +1087,37 @@
         <v>0.549590536851683</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G2">
         <v>148.5</v>
       </c>
       <c r="H2">
-        <v>217.051763812665</v>
+        <v>154.374054843212</v>
       </c>
       <c r="I2">
         <v>311.3</v>
       </c>
       <c r="J2">
-        <v>429.441763812665</v>
+        <v>432.704054843212</v>
       </c>
       <c r="K2">
         <v>181.2</v>
       </c>
       <c r="L2">
-        <v>230.79</v>
+        <v>296.73</v>
       </c>
       <c r="M2">
-        <v>0.108139789706422</v>
+        <v>0.105662771722456</v>
       </c>
       <c r="N2">
-        <v>0.0827366115684753</v>
+        <v>0.078626206910795</v>
       </c>
       <c r="O2">
-        <v>0.066387683180236</v>
+        <v>0.061317683180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.159085794437365</v>
+        <v>0.15977273834771</v>
       </c>
       <c r="T2">
-        <v>0.222826705228251</v>
+        <v>0.62761006910795</v>
       </c>
       <c r="U2">
         <v>1.49727998132181</v>
       </c>
       <c r="V2">
-        <v>2.16334733358912</v>
+        <v>6.1524984451719</v>
       </c>
       <c r="W2">
-        <v>4.541401124986953</v>
+        <v>4.548099356734721</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>148.5</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08511241433363595</v>
+        <v>0.07861241433363596</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1352,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08921372525824503</v>
+        <v>0.08639601859201376</v>
       </c>
       <c r="C2">
-        <v>409.9531657669277</v>
+        <v>407.4957196628555</v>
       </c>
       <c r="D2">
-        <v>391.5531657669277</v>
+        <v>389.0957196628556</v>
       </c>
       <c r="E2">
         <v>-181.2</v>
@@ -1403,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08921372525824503</v>
+        <v>0.08639601859201376</v>
       </c>
       <c r="T2">
         <v>0.7671444445351492</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1434,13 +1434,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.08907127506267691</v>
+        <v>0.08625976735111134</v>
       </c>
       <c r="C3">
-        <v>407.4174030320237</v>
+        <v>404.8875831620397</v>
       </c>
       <c r="D3">
-        <v>392.3144030320238</v>
+        <v>389.7845831620397</v>
       </c>
       <c r="E3">
         <v>-177.903</v>
@@ -1467,37 +1467,37 @@
         <v>30.5</v>
       </c>
       <c r="M3">
-        <v>0.0748419</v>
+        <v>0.0534114</v>
       </c>
       <c r="N3">
-        <v>30.4251581</v>
+        <v>30.4465886</v>
       </c>
       <c r="O3">
-        <v>6.693534782</v>
+        <v>6.698249492</v>
       </c>
       <c r="P3">
-        <v>23.731623318</v>
+        <v>23.748339108</v>
       </c>
       <c r="Q3">
-        <v>29.131623318</v>
+        <v>29.148339108</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.08979213642694636</v>
+        <v>0.08700344176879932</v>
       </c>
       <c r="T3">
         <v>0.7731886128860321</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>407.5257309074195</v>
+        <v>571.0391414566927</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1516,13 +1516,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.08892882486710875</v>
+        <v>0.08612351611020889</v>
       </c>
       <c r="C4">
-        <v>404.8846059785045</v>
+        <v>402.2818901449729</v>
       </c>
       <c r="D4">
-        <v>393.0786059785045</v>
+        <v>390.4758901449729</v>
       </c>
       <c r="E4">
         <v>-174.606</v>
@@ -1549,37 +1549,37 @@
         <v>30.5</v>
       </c>
       <c r="M4">
-        <v>0.1496838</v>
+        <v>0.1068228</v>
       </c>
       <c r="N4">
-        <v>30.3503162</v>
+        <v>30.3931772</v>
       </c>
       <c r="O4">
-        <v>6.677069564000001</v>
+        <v>6.686498984</v>
       </c>
       <c r="P4">
-        <v>23.673246636</v>
+        <v>23.706678216</v>
       </c>
       <c r="Q4">
-        <v>29.073246636</v>
+        <v>29.106678216</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.09038235190521302</v>
+        <v>0.08762326133694785</v>
       </c>
       <c r="T4">
         <v>0.7793561316114229</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>203.7628654537098</v>
+        <v>285.5195707283464</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1598,13 +1598,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.08878637467154064</v>
+        <v>0.08598726486930647</v>
       </c>
       <c r="C5">
-        <v>402.3547919710581</v>
+        <v>399.6786536357611</v>
       </c>
       <c r="D5">
-        <v>393.8457919710581</v>
+        <v>391.1696536357612</v>
       </c>
       <c r="E5">
         <v>-171.309</v>
@@ -1631,37 +1631,37 @@
         <v>30.5</v>
       </c>
       <c r="M5">
-        <v>0.2245257</v>
+        <v>0.1602342</v>
       </c>
       <c r="N5">
-        <v>30.2754743</v>
+        <v>30.3397658</v>
       </c>
       <c r="O5">
-        <v>6.660604346</v>
+        <v>6.674748476</v>
       </c>
       <c r="P5">
-        <v>23.614869954</v>
+        <v>23.665017324</v>
       </c>
       <c r="Q5">
-        <v>29.014869954</v>
+        <v>29.065017324</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.09098473677478416</v>
+        <v>0.08825586069000667</v>
       </c>
       <c r="T5">
         <v>0.785650815671358</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>135.8419103024731</v>
+        <v>190.3463804855643</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1680,13 +1680,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.0886439244759725</v>
+        <v>0.08585101362840404</v>
       </c>
       <c r="C6">
-        <v>399.8279785102043</v>
+        <v>397.0778867512358</v>
       </c>
       <c r="D6">
-        <v>394.6159785102043</v>
+        <v>391.8658867512358</v>
       </c>
       <c r="E6">
         <v>-168.012</v>
@@ -1713,37 +1713,37 @@
         <v>30.5</v>
       </c>
       <c r="M6">
-        <v>0.2993676</v>
+        <v>0.2136456</v>
       </c>
       <c r="N6">
-        <v>30.2006324</v>
+        <v>30.2863544</v>
       </c>
       <c r="O6">
-        <v>6.644139128</v>
+        <v>6.662997968</v>
       </c>
       <c r="P6">
-        <v>23.556493272</v>
+        <v>23.623356432</v>
       </c>
       <c r="Q6">
-        <v>28.956493272</v>
+        <v>29.023356432</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.09159967132913802</v>
+        <v>0.08890163919625421</v>
       </c>
       <c r="T6">
         <v>0.7920766389825415</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>101.8814327268549</v>
+        <v>142.7597853641732</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.08850147428040436</v>
+        <v>0.0857147623875016</v>
       </c>
       <c r="C7">
-        <v>397.3041832336226</v>
+        <v>394.4796027017799</v>
       </c>
       <c r="D7">
-        <v>395.3891832336226</v>
+        <v>392.56460270178</v>
       </c>
       <c r="E7">
         <v>-164.715</v>
@@ -1795,37 +1795,37 @@
         <v>30.5</v>
       </c>
       <c r="M7">
-        <v>0.3742095</v>
+        <v>0.267057</v>
       </c>
       <c r="N7">
-        <v>30.1257905</v>
+        <v>30.232943</v>
       </c>
       <c r="O7">
-        <v>6.62767391</v>
+        <v>6.65124746</v>
       </c>
       <c r="P7">
-        <v>23.49811659</v>
+        <v>23.58169554</v>
       </c>
       <c r="Q7">
-        <v>28.89811659</v>
+        <v>28.98169554</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.09222755187410986</v>
+        <v>0.08956101303947538</v>
       </c>
       <c r="T7">
         <v>0.798637742784487</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>81.50514618148389</v>
+        <v>114.2078282913386</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1844,13 +1844,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.08835902408483619</v>
+        <v>0.08557851114659916</v>
       </c>
       <c r="C8">
-        <v>394.7834239175012</v>
+        <v>391.883814792164</v>
       </c>
       <c r="D8">
-        <v>396.1654239175012</v>
+        <v>393.265814792164</v>
       </c>
       <c r="E8">
         <v>-161.418</v>
@@ -1877,37 +1877,37 @@
         <v>30.5</v>
       </c>
       <c r="M8">
-        <v>0.4490514</v>
+        <v>0.3204684</v>
       </c>
       <c r="N8">
-        <v>30.0509486</v>
+        <v>30.1795316</v>
       </c>
       <c r="O8">
-        <v>6.611208692000001</v>
+        <v>6.639496952</v>
       </c>
       <c r="P8">
-        <v>23.439739908</v>
+        <v>23.540034648</v>
       </c>
       <c r="Q8">
-        <v>28.839739908</v>
+        <v>28.940034648</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.09286879157961297</v>
+        <v>0.09023441611340337</v>
       </c>
       <c r="T8">
         <v>0.8053384445396651</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>67.92095515123658</v>
+        <v>95.17319024278213</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.08821657388926808</v>
+        <v>0.08544225990569676</v>
       </c>
       <c r="C9">
-        <v>392.2657184778964</v>
+        <v>389.2905364223899</v>
       </c>
       <c r="D9">
-        <v>396.9447184778964</v>
+        <v>393.96953642239</v>
       </c>
       <c r="E9">
         <v>-158.121</v>
@@ -1959,37 +1959,37 @@
         <v>30.5</v>
       </c>
       <c r="M9">
-        <v>0.5238933</v>
+        <v>0.3738798</v>
       </c>
       <c r="N9">
-        <v>29.9761067</v>
+        <v>30.1261202</v>
       </c>
       <c r="O9">
-        <v>6.594743473999999</v>
+        <v>6.627746444</v>
       </c>
       <c r="P9">
-        <v>23.381363226</v>
+        <v>23.498373756</v>
       </c>
       <c r="Q9">
-        <v>28.781363226</v>
+        <v>28.898373756</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.09352382138630977</v>
+        <v>0.09092230097386748</v>
       </c>
       <c r="T9">
         <v>0.8121832474078581</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>58.21796155820278</v>
+        <v>81.57702020809897</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.08807412369369992</v>
+        <v>0.08530600866479432</v>
       </c>
       <c r="C10">
-        <v>389.7510849721145</v>
+        <v>386.6997810885459</v>
       </c>
       <c r="D10">
-        <v>397.7270849721145</v>
+        <v>394.6757810885459</v>
       </c>
       <c r="E10">
         <v>-154.824</v>
@@ -2041,37 +2041,37 @@
         <v>30.5</v>
       </c>
       <c r="M10">
-        <v>0.5987352</v>
+        <v>0.4272912</v>
       </c>
       <c r="N10">
-        <v>29.9012648</v>
+        <v>30.0727088</v>
       </c>
       <c r="O10">
-        <v>6.578278256</v>
+        <v>6.615995936</v>
       </c>
       <c r="P10">
-        <v>23.322986544</v>
+        <v>23.456712864</v>
       </c>
       <c r="Q10">
-        <v>28.722986544</v>
+        <v>28.856712864</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.09419309097141296</v>
+        <v>0.09162513985303729</v>
       </c>
       <c r="T10">
         <v>0.8191768503384027</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>50.94071636342743</v>
+        <v>71.37989268208661</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.08793167349813179</v>
+        <v>0.08516975742389189</v>
       </c>
       <c r="C11">
-        <v>387.2395416001032</v>
+        <v>384.1115623836673</v>
       </c>
       <c r="D11">
-        <v>398.5125416001032</v>
+        <v>395.3845623836673</v>
       </c>
       <c r="E11">
         <v>-151.527</v>
@@ -2123,37 +2123,37 @@
         <v>30.5</v>
       </c>
       <c r="M11">
-        <v>0.6735771</v>
+        <v>0.4807025999999999</v>
       </c>
       <c r="N11">
-        <v>29.8264229</v>
+        <v>30.0192974</v>
       </c>
       <c r="O11">
-        <v>6.561813038</v>
+        <v>6.604245428</v>
       </c>
       <c r="P11">
-        <v>23.264609862</v>
+        <v>23.415051972</v>
       </c>
       <c r="Q11">
-        <v>28.664609862</v>
+        <v>28.815051972</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.09487706977816679</v>
+        <v>0.09234342574054054</v>
       </c>
       <c r="T11">
         <v>0.8263241588278607</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>45.28063676749105</v>
+        <v>63.44879349518809</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.08778922330256365</v>
+        <v>0.08503350618298945</v>
       </c>
       <c r="C12">
-        <v>384.7311067058648</v>
+        <v>381.5258939986103</v>
       </c>
       <c r="D12">
-        <v>399.3011067058649</v>
+        <v>396.0958939986103</v>
       </c>
       <c r="E12">
         <v>-148.23</v>
@@ -2205,37 +2205,37 @@
         <v>30.5</v>
       </c>
       <c r="M12">
-        <v>0.7484190000000001</v>
+        <v>0.534114</v>
       </c>
       <c r="N12">
-        <v>29.751581</v>
+        <v>29.965886</v>
       </c>
       <c r="O12">
-        <v>6.545347820000001</v>
+        <v>6.59249492</v>
       </c>
       <c r="P12">
-        <v>23.20623318</v>
+        <v>23.37339108</v>
       </c>
       <c r="Q12">
-        <v>28.60623318</v>
+        <v>28.77339108</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.09557624811395962</v>
+        <v>0.09307767353665494</v>
       </c>
       <c r="T12">
         <v>0.8336302963948621</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>40.75257309074195</v>
+        <v>57.10391414566928</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2254,13 +2254,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.08764677310699551</v>
+        <v>0.08489725494208702</v>
       </c>
       <c r="C13">
-        <v>382.2257987788842</v>
+        <v>378.9427897229326</v>
       </c>
       <c r="D13">
-        <v>400.0927987788842</v>
+        <v>396.8097897229326</v>
       </c>
       <c r="E13">
         <v>-144.933</v>
@@ -2287,37 +2287,37 @@
         <v>30.5</v>
       </c>
       <c r="M13">
-        <v>0.8232609</v>
+        <v>0.5875253999999999</v>
       </c>
       <c r="N13">
-        <v>29.6767391</v>
+        <v>29.9124746</v>
       </c>
       <c r="O13">
-        <v>6.528882601999999</v>
+        <v>6.580744412</v>
       </c>
       <c r="P13">
-        <v>23.147856498</v>
+        <v>23.331730188</v>
       </c>
       <c r="Q13">
-        <v>28.547856498</v>
+        <v>28.731730188</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.09629113832246686</v>
+        <v>0.09382842128324385</v>
       </c>
       <c r="T13">
         <v>0.8411006168285378</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>37.04779371885632</v>
+        <v>51.91264922333572</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.08750432291142737</v>
+        <v>0.08476100370118461</v>
       </c>
       <c r="C14">
-        <v>379.7236364555729</v>
+        <v>376.3622634457852</v>
       </c>
       <c r="D14">
-        <v>400.8876364555729</v>
+        <v>397.5262634457852</v>
       </c>
       <c r="E14">
         <v>-141.636</v>
@@ -2369,37 +2369,37 @@
         <v>30.5</v>
       </c>
       <c r="M14">
-        <v>0.8981028000000001</v>
+        <v>0.6409368</v>
       </c>
       <c r="N14">
-        <v>29.6018972</v>
+        <v>29.8590632</v>
       </c>
       <c r="O14">
-        <v>6.512417384</v>
+        <v>6.568993904</v>
       </c>
       <c r="P14">
-        <v>23.089479816</v>
+        <v>23.290069296</v>
       </c>
       <c r="Q14">
-        <v>28.489479816</v>
+        <v>28.690069296</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.09702227603571292</v>
+        <v>0.09459623147861887</v>
       </c>
       <c r="T14">
         <v>0.8487407172720697</v>
       </c>
       <c r="U14">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="Y14">
-        <v>33.96047757561829</v>
+        <v>47.58659512139107</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.08736187271585924</v>
+        <v>0.08462475246028216</v>
       </c>
       <c r="C15">
-        <v>377.2246385207325</v>
+        <v>373.7843291568124</v>
       </c>
       <c r="D15">
-        <v>401.6856385207325</v>
+        <v>398.2453291568124</v>
       </c>
       <c r="E15">
         <v>-138.339</v>
@@ -2451,37 +2451,37 @@
         <v>30.5</v>
       </c>
       <c r="M15">
-        <v>0.9729447</v>
+        <v>0.6943481999999999</v>
       </c>
       <c r="N15">
-        <v>29.5270553</v>
+        <v>29.8056518</v>
       </c>
       <c r="O15">
-        <v>6.495952166</v>
+        <v>6.557243396</v>
       </c>
       <c r="P15">
-        <v>23.031103134</v>
+        <v>23.248408404</v>
       </c>
       <c r="Q15">
-        <v>28.431103134</v>
+        <v>28.648408404</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.09777022151248188</v>
+        <v>0.09538169248308295</v>
       </c>
       <c r="T15">
         <v>0.8565564522085563</v>
       </c>
       <c r="U15">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="Y15">
-        <v>31.34813314672458</v>
+        <v>43.92608780436099</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2500,13 +2500,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.08721942252029108</v>
+        <v>0.08448850121937973</v>
       </c>
       <c r="C16">
-        <v>374.7288239090341</v>
+        <v>371.2090009470625</v>
       </c>
       <c r="D16">
-        <v>402.4868239090342</v>
+        <v>398.9670009470626</v>
       </c>
       <c r="E16">
         <v>-135.042</v>
@@ -2533,37 +2533,37 @@
         <v>30.5</v>
       </c>
       <c r="M16">
-        <v>1.0477866</v>
+        <v>0.7477596</v>
       </c>
       <c r="N16">
-        <v>29.4522134</v>
+        <v>29.7522404</v>
       </c>
       <c r="O16">
-        <v>6.479486948000001</v>
+        <v>6.545492888</v>
       </c>
       <c r="P16">
-        <v>22.972726452</v>
+        <v>23.206747512</v>
       </c>
       <c r="Q16">
-        <v>28.372726452</v>
+        <v>28.606747512</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.09853556107010591</v>
+        <v>0.09618542002253458</v>
       </c>
       <c r="T16">
         <v>0.8645539484226356</v>
       </c>
       <c r="U16">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="Y16">
-        <v>29.10898077910139</v>
+        <v>40.78851010404949</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2582,13 +2582,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.08707697232472296</v>
+        <v>0.0843522499784773</v>
       </c>
       <c r="C17">
-        <v>372.2362117065157</v>
+        <v>368.6362930099087</v>
       </c>
       <c r="D17">
-        <v>403.2912117065157</v>
+        <v>399.6912930099087</v>
       </c>
       <c r="E17">
         <v>-131.745</v>
@@ -2615,37 +2615,37 @@
         <v>30.5</v>
       </c>
       <c r="M17">
-        <v>1.1226285</v>
+        <v>0.801171</v>
       </c>
       <c r="N17">
-        <v>29.3773715</v>
+        <v>29.698829</v>
       </c>
       <c r="O17">
-        <v>6.463021729999999</v>
+        <v>6.53374238</v>
       </c>
       <c r="P17">
-        <v>22.91434977</v>
+        <v>23.16508662</v>
       </c>
       <c r="Q17">
-        <v>28.31434977</v>
+        <v>28.56508662</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.09931890861732112</v>
+        <v>0.09700805879820859</v>
       </c>
       <c r="T17">
         <v>0.8727396210182227</v>
       </c>
       <c r="U17">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="Y17">
-        <v>27.16838206049463</v>
+        <v>38.06927609711285</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2664,13 +2664,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.08693452212915481</v>
+        <v>0.08421599873757486</v>
       </c>
       <c r="C18">
-        <v>369.7468211520983</v>
+        <v>366.0662196419791</v>
       </c>
       <c r="D18">
-        <v>404.0988211520983</v>
+        <v>400.4182196419791</v>
       </c>
       <c r="E18">
         <v>-128.448</v>
@@ -2697,37 +2697,37 @@
         <v>30.5</v>
       </c>
       <c r="M18">
-        <v>1.1974704</v>
+        <v>0.8545824</v>
       </c>
       <c r="N18">
-        <v>29.3025296</v>
+        <v>29.6454176</v>
       </c>
       <c r="O18">
-        <v>6.446556512</v>
+        <v>6.521991872</v>
       </c>
       <c r="P18">
-        <v>22.855973088</v>
+        <v>23.123425728</v>
       </c>
       <c r="Q18">
-        <v>28.255973088</v>
+        <v>28.523425728</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.1001209072966129</v>
+        <v>0.09785028421139866</v>
       </c>
       <c r="T18">
         <v>0.8811201905803714</v>
       </c>
       <c r="U18">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="Y18">
-        <v>25.47035818171372</v>
+        <v>35.6899463410433</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2746,13 +2746,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.08679207193358669</v>
+        <v>0.08407974749667246</v>
       </c>
       <c r="C19">
-        <v>367.260671639119</v>
+        <v>363.4987952440976</v>
       </c>
       <c r="D19">
-        <v>404.909671639119</v>
+        <v>401.1477952440976</v>
       </c>
       <c r="E19">
         <v>-125.151</v>
@@ -2779,37 +2779,37 @@
         <v>30.5</v>
       </c>
       <c r="M19">
-        <v>1.2723123</v>
+        <v>0.9079938</v>
       </c>
       <c r="N19">
-        <v>29.2276877</v>
+        <v>29.5920062</v>
       </c>
       <c r="O19">
-        <v>6.430091294</v>
+        <v>6.510241364</v>
       </c>
       <c r="P19">
-        <v>22.797596406</v>
+        <v>23.081764836</v>
       </c>
       <c r="Q19">
-        <v>28.197596406</v>
+        <v>28.481764836</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.1009422312452852</v>
+        <v>0.09871280421285838</v>
       </c>
       <c r="T19">
         <v>0.8897027015777527</v>
       </c>
       <c r="U19">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="Y19">
-        <v>23.9721018180835</v>
+        <v>33.59053773274663</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2828,13 +2828,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.08664962173801855</v>
+        <v>0.08394349625577001</v>
       </c>
       <c r="C20">
-        <v>364.7777827168846</v>
+        <v>360.9340343222352</v>
       </c>
       <c r="D20">
-        <v>405.7237827168847</v>
+        <v>401.8800343222352</v>
       </c>
       <c r="E20">
         <v>-121.854</v>
@@ -2861,37 +2861,37 @@
         <v>30.5</v>
       </c>
       <c r="M20">
-        <v>1.3471542</v>
+        <v>0.9614051999999998</v>
       </c>
       <c r="N20">
-        <v>29.1528458</v>
+        <v>29.5385948</v>
       </c>
       <c r="O20">
-        <v>6.413626076000001</v>
+        <v>6.498490856</v>
       </c>
       <c r="P20">
-        <v>22.739219724</v>
+        <v>23.040103944</v>
       </c>
       <c r="Q20">
-        <v>28.139219724</v>
+        <v>28.440103944</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.1017835874853885</v>
+        <v>0.0995963612875244</v>
       </c>
       <c r="T20">
         <v>0.8984945421116551</v>
       </c>
       <c r="U20">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="Y20">
-        <v>22.64031838374553</v>
+        <v>31.72439674759405</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2910,13 +2910,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.08650717154245041</v>
+        <v>0.0838072450148676</v>
       </c>
       <c r="C21">
-        <v>362.2981740922413</v>
+        <v>358.3719514884702</v>
       </c>
       <c r="D21">
-        <v>406.5411740922414</v>
+        <v>402.6149514884702</v>
       </c>
       <c r="E21">
         <v>-118.557</v>
@@ -2943,37 +2943,37 @@
         <v>30.5</v>
       </c>
       <c r="M21">
-        <v>1.4219961</v>
+        <v>1.0148166</v>
       </c>
       <c r="N21">
-        <v>29.0780039</v>
+        <v>29.4851834</v>
       </c>
       <c r="O21">
-        <v>6.397160857999999</v>
+        <v>6.486740348000001</v>
       </c>
       <c r="P21">
-        <v>22.680843042</v>
+        <v>22.998443052</v>
       </c>
       <c r="Q21">
-        <v>28.080843042</v>
+        <v>28.398443052</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.1026457179536425</v>
+        <v>0.1005017345862563</v>
       </c>
       <c r="T21">
         <v>0.9075034651278765</v>
       </c>
       <c r="U21">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="Y21">
-        <v>21.44872267933787</v>
+        <v>30.05469165561541</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.08636472134688226</v>
+        <v>0.08367099377396517</v>
       </c>
       <c r="C22">
-        <v>359.8218656311657</v>
+        <v>355.812561461962</v>
       </c>
       <c r="D22">
-        <v>407.3618656311657</v>
+        <v>403.3525614619621</v>
       </c>
       <c r="E22">
         <v>-115.26</v>
@@ -3025,37 +3025,37 @@
         <v>30.5</v>
       </c>
       <c r="M22">
-        <v>1.496838</v>
+        <v>1.068228</v>
       </c>
       <c r="N22">
-        <v>29.003162</v>
+        <v>29.431772</v>
       </c>
       <c r="O22">
-        <v>6.38069564</v>
+        <v>6.47498984</v>
       </c>
       <c r="P22">
-        <v>22.62246636</v>
+        <v>22.95678216</v>
       </c>
       <c r="Q22">
-        <v>28.02246636</v>
+        <v>28.35678216</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.1035294016836028</v>
+        <v>0.1014297422174564</v>
       </c>
       <c r="T22">
         <v>0.9167376112195034</v>
       </c>
       <c r="U22">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         </is>
       </c>
       <c r="Y22">
-        <v>20.37628654537097</v>
+        <v>28.55195707283464</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.08622227115131412</v>
+        <v>0.08353474253306271</v>
       </c>
       <c r="C23">
-        <v>357.348877360374</v>
+        <v>353.2558790699325</v>
       </c>
       <c r="D23">
-        <v>408.185877360374</v>
+        <v>404.0928790699325</v>
       </c>
       <c r="E23">
         <v>-111.963</v>
@@ -3107,37 +3107,37 @@
         <v>30.5</v>
       </c>
       <c r="M23">
-        <v>1.5716799</v>
+        <v>1.1216394</v>
       </c>
       <c r="N23">
-        <v>28.9283201</v>
+        <v>29.3783606</v>
       </c>
       <c r="O23">
-        <v>6.364230422</v>
+        <v>6.463239332000001</v>
       </c>
       <c r="P23">
-        <v>22.564089678</v>
+        <v>22.915121268</v>
       </c>
       <c r="Q23">
-        <v>27.964089678</v>
+        <v>28.315121268</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.1044354571535622</v>
+        <v>0.1023812437127376</v>
       </c>
       <c r="T23">
         <v>0.926205533161551</v>
       </c>
       <c r="U23">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="Y23">
-        <v>19.4059871860676</v>
+        <v>27.19234006936633</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.08607982095574598</v>
+        <v>0.0833984912921603</v>
       </c>
       <c r="C24">
-        <v>354.8792294689507</v>
+        <v>350.7019192486592</v>
       </c>
       <c r="D24">
-        <v>409.0132294689507</v>
+        <v>404.8359192486592</v>
       </c>
       <c r="E24">
         <v>-108.666</v>
@@ -3189,37 +3189,37 @@
         <v>30.5</v>
       </c>
       <c r="M24">
-        <v>1.6465218</v>
+        <v>1.1750508</v>
       </c>
       <c r="N24">
-        <v>28.8534782</v>
+        <v>29.3249492</v>
       </c>
       <c r="O24">
-        <v>6.347765204000001</v>
+        <v>6.451488824</v>
       </c>
       <c r="P24">
-        <v>22.505712996</v>
+        <v>22.873460376</v>
       </c>
       <c r="Q24">
-        <v>27.905712996</v>
+        <v>28.273460376</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.1053647448150589</v>
+        <v>0.1033571426822568</v>
       </c>
       <c r="T24">
         <v>0.935916222332882</v>
       </c>
       <c r="U24">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="Y24">
-        <v>18.52389685942816</v>
+        <v>25.95632461166786</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.08593737076017786</v>
+        <v>0.08326224005125786</v>
       </c>
       <c r="C25">
-        <v>352.4129423099984</v>
+        <v>348.1506970444815</v>
       </c>
       <c r="D25">
-        <v>409.8439423099984</v>
+        <v>405.5816970444815</v>
       </c>
       <c r="E25">
         <v>-105.369</v>
@@ -3271,37 +3271,37 @@
         <v>30.5</v>
       </c>
       <c r="M25">
-        <v>1.7213637</v>
+        <v>1.2284622</v>
       </c>
       <c r="N25">
-        <v>28.7786363</v>
+        <v>29.2715378</v>
       </c>
       <c r="O25">
-        <v>6.331299985999999</v>
+        <v>6.439738316000001</v>
       </c>
       <c r="P25">
-        <v>22.447336314</v>
+        <v>22.831799484</v>
       </c>
       <c r="Q25">
-        <v>27.847336314</v>
+        <v>28.231799484</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.1063181698184128</v>
+        <v>0.1043583896769583</v>
       </c>
       <c r="T25">
         <v>0.9458791371969749</v>
       </c>
       <c r="U25">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="Y25">
-        <v>17.71851003945302</v>
+        <v>24.82778875898664</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.08579492056460969</v>
+        <v>0.08312598881035543</v>
       </c>
       <c r="C26">
-        <v>349.9500364023061</v>
+        <v>345.6022276148146</v>
       </c>
       <c r="D26">
-        <v>410.6780364023061</v>
+        <v>406.3302276148146</v>
       </c>
       <c r="E26">
         <v>-102.072</v>
@@ -3353,37 +3353,37 @@
         <v>30.5</v>
       </c>
       <c r="M26">
-        <v>1.7962056</v>
+        <v>1.2818736</v>
       </c>
       <c r="N26">
-        <v>28.7037944</v>
+        <v>29.2181264</v>
       </c>
       <c r="O26">
-        <v>6.314834768</v>
+        <v>6.427987808</v>
       </c>
       <c r="P26">
-        <v>22.388959632</v>
+        <v>22.790138592</v>
       </c>
       <c r="Q26">
-        <v>27.788959632</v>
+        <v>28.190138592</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.1072966849534338</v>
+        <v>0.1053859852767835</v>
       </c>
       <c r="T26">
         <v>0.9561042340311754</v>
       </c>
       <c r="U26">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         </is>
       </c>
       <c r="Y26">
-        <v>16.98023878780914</v>
+        <v>23.79329756069553</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.08565247036904156</v>
+        <v>0.08298973756945299</v>
       </c>
       <c r="C27">
-        <v>347.4905324320381</v>
+        <v>343.0565262291775</v>
       </c>
       <c r="D27">
-        <v>411.5155324320381</v>
+        <v>407.0815262291775</v>
       </c>
       <c r="E27">
         <v>-98.77499999999999</v>
@@ -3435,37 +3435,37 @@
         <v>30.5</v>
       </c>
       <c r="M27">
-        <v>1.8710475</v>
+        <v>1.335285</v>
       </c>
       <c r="N27">
-        <v>28.6289525</v>
+        <v>29.164715</v>
       </c>
       <c r="O27">
-        <v>6.29836955</v>
+        <v>6.416237300000001</v>
       </c>
       <c r="P27">
-        <v>22.33058295</v>
+        <v>22.7484777</v>
       </c>
       <c r="Q27">
-        <v>27.73058295</v>
+        <v>28.1484777</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.1083012938253888</v>
+        <v>0.1064409834259373</v>
       </c>
       <c r="T27">
         <v>0.966602000114288</v>
       </c>
       <c r="U27">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="Y27">
-        <v>16.30102923629678</v>
+        <v>22.84156565826772</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.08551002017347344</v>
+        <v>0.08285348632855058</v>
       </c>
       <c r="C28">
-        <v>345.0344512544454</v>
+        <v>340.5136082702302</v>
       </c>
       <c r="D28">
-        <v>412.3564512544454</v>
+        <v>407.8356082702302</v>
       </c>
       <c r="E28">
         <v>-95.47799999999999</v>
@@ -3517,37 +3517,37 @@
         <v>30.5</v>
       </c>
       <c r="M28">
-        <v>1.9458894</v>
+        <v>1.3886964</v>
       </c>
       <c r="N28">
-        <v>28.5541106</v>
+        <v>29.1113036</v>
       </c>
       <c r="O28">
-        <v>6.281904332000001</v>
+        <v>6.404486792</v>
       </c>
       <c r="P28">
-        <v>22.272206268</v>
+        <v>22.706816808</v>
       </c>
       <c r="Q28">
-        <v>27.672206268</v>
+        <v>28.106816808</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.1093330542884776</v>
+        <v>0.1075244950385819</v>
       </c>
       <c r="T28">
         <v>0.9773834896050523</v>
       </c>
       <c r="U28">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="Y28">
-        <v>15.67406657336229</v>
+        <v>21.96304390218049</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3566,13 +3566,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.08536756997790527</v>
+        <v>0.08271723508764814</v>
       </c>
       <c r="C29">
-        <v>342.5818138955962</v>
+        <v>337.9734892348249</v>
       </c>
       <c r="D29">
-        <v>413.2008138955962</v>
+        <v>408.5924892348249</v>
       </c>
       <c r="E29">
         <v>-92.18099999999998</v>
@@ -3599,37 +3599,37 @@
         <v>30.5</v>
       </c>
       <c r="M29">
-        <v>2.0207313</v>
+        <v>1.4421078</v>
       </c>
       <c r="N29">
-        <v>28.4792687</v>
+        <v>29.0578922</v>
       </c>
       <c r="O29">
-        <v>6.265439113999999</v>
+        <v>6.392736284000001</v>
       </c>
       <c r="P29">
-        <v>22.213829586</v>
+        <v>22.665155916</v>
       </c>
       <c r="Q29">
-        <v>27.613829586</v>
+        <v>28.065155916</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.1103930821615141</v>
+        <v>0.1086376919008879</v>
       </c>
       <c r="T29">
         <v>0.988460362369536</v>
       </c>
       <c r="U29">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="Y29">
-        <v>15.09354558916368</v>
+        <v>21.14959783172936</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3648,13 +3648,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.08522511978233716</v>
+        <v>0.08258098384674571</v>
       </c>
       <c r="C30">
-        <v>340.1326415541278</v>
+        <v>335.4361847350666</v>
       </c>
       <c r="D30">
-        <v>414.0486415541278</v>
+        <v>409.3521847350666</v>
       </c>
       <c r="E30">
         <v>-88.88399999999999</v>
@@ -3681,37 +3681,37 @@
         <v>30.5</v>
       </c>
       <c r="M30">
-        <v>2.0955732</v>
+        <v>1.4955192</v>
       </c>
       <c r="N30">
-        <v>28.4044268</v>
+        <v>29.0044808</v>
       </c>
       <c r="O30">
-        <v>6.248973896</v>
+        <v>6.380985776</v>
       </c>
       <c r="P30">
-        <v>22.155452904</v>
+        <v>22.623495024</v>
       </c>
       <c r="Q30">
-        <v>27.555452904</v>
+        <v>28.023495024</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.111482555253246</v>
+        <v>0.1097818108982579</v>
       </c>
       <c r="T30">
         <v>0.9998449260441445</v>
       </c>
       <c r="U30">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="Y30">
-        <v>14.5544903895507</v>
+        <v>20.39425505202474</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3730,13 +3730,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.08508266958676899</v>
+        <v>0.08244473260584329</v>
       </c>
       <c r="C31">
-        <v>337.6869556030221</v>
+        <v>332.9017104993869</v>
       </c>
       <c r="D31">
-        <v>414.8999556030221</v>
+        <v>410.1147104993869</v>
       </c>
       <c r="E31">
         <v>-85.587</v>
@@ -3763,37 +3763,37 @@
         <v>30.5</v>
       </c>
       <c r="M31">
-        <v>2.1704151</v>
+        <v>1.5489306</v>
       </c>
       <c r="N31">
-        <v>28.3295849</v>
+        <v>28.9510694</v>
       </c>
       <c r="O31">
-        <v>6.232508678</v>
+        <v>6.369235268000001</v>
       </c>
       <c r="P31">
-        <v>22.097076222</v>
+        <v>22.581834132</v>
       </c>
       <c r="Q31">
-        <v>27.497076222</v>
+        <v>27.981834132</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.1126027177278437</v>
+        <v>0.1109581585997793</v>
       </c>
       <c r="T31">
         <v>1.011550181653249</v>
       </c>
       <c r="U31">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="Y31">
-        <v>14.05261141060068</v>
+        <v>19.691004877817</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3812,13 +3812,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.08494021939120086</v>
+        <v>0.08230848136494084</v>
       </c>
       <c r="C32">
-        <v>335.2447775913998</v>
+        <v>330.3700823736294</v>
       </c>
       <c r="D32">
-        <v>415.7547775913999</v>
+        <v>410.8800823736295</v>
       </c>
       <c r="E32">
         <v>-82.28999999999999</v>
@@ -3845,37 +3845,37 @@
         <v>30.5</v>
       </c>
       <c r="M32">
-        <v>2.245257</v>
+        <v>1.602342</v>
       </c>
       <c r="N32">
-        <v>28.254743</v>
+        <v>28.897658</v>
       </c>
       <c r="O32">
-        <v>6.216043460000001</v>
+        <v>6.35748476</v>
       </c>
       <c r="P32">
-        <v>22.03869954</v>
+        <v>22.54017324</v>
       </c>
       <c r="Q32">
-        <v>27.43869954</v>
+        <v>27.94017324</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.1137548848445727</v>
+        <v>0.1121681162356298</v>
       </c>
       <c r="T32">
         <v>1.023589873136899</v>
       </c>
       <c r="U32">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="Y32">
-        <v>13.58419103024732</v>
+        <v>19.03463804855643</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3894,13 +3894,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.08518464919563273</v>
+        <v>0.08217223012403842</v>
       </c>
       <c r="C33">
-        <v>330.4831472998817</v>
+        <v>327.8413163221474</v>
       </c>
       <c r="D33">
-        <v>414.2901472998817</v>
+        <v>411.6483163221474</v>
       </c>
       <c r="E33">
         <v>-78.99299999999999</v>
@@ -3927,45 +3927,45 @@
         <v>30.5</v>
       </c>
       <c r="M33">
-        <v>2.4836301</v>
+        <v>1.6557534</v>
       </c>
       <c r="N33">
-        <v>28.0163699</v>
+        <v>28.8442466</v>
       </c>
       <c r="O33">
-        <v>6.163601378</v>
+        <v>6.345734252000001</v>
       </c>
       <c r="P33">
-        <v>21.852768522</v>
+        <v>22.498512348</v>
       </c>
       <c r="Q33">
-        <v>27.252768522</v>
+        <v>27.898512348</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.1149404481096127</v>
+        <v>0.1134131451073021</v>
       </c>
       <c r="T33">
         <v>1.035978541185293</v>
       </c>
       <c r="U33">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y33">
-        <v>12.28041164422995</v>
+        <v>18.42061746634493</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.0850546790000646</v>
+        <v>0.08203597888313598</v>
       </c>
       <c r="C34">
-        <v>327.9636452573333</v>
+        <v>325.3154284289138</v>
       </c>
       <c r="D34">
-        <v>415.0676452573333</v>
+        <v>412.4194284289138</v>
       </c>
       <c r="E34">
         <v>-75.69599999999998</v>
@@ -4009,45 +4009,45 @@
         <v>30.5</v>
       </c>
       <c r="M34">
-        <v>2.5637472</v>
+        <v>1.7091648</v>
       </c>
       <c r="N34">
-        <v>27.9362528</v>
+        <v>28.7908352</v>
       </c>
       <c r="O34">
-        <v>6.145975615999999</v>
+        <v>6.333983744</v>
       </c>
       <c r="P34">
-        <v>21.790277184</v>
+        <v>22.456851456</v>
       </c>
       <c r="Q34">
-        <v>27.190277184</v>
+        <v>27.856851456</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1161608808824479</v>
+        <v>0.1146947924752</v>
       </c>
       <c r="T34">
         <v>1.048731581823345</v>
       </c>
       <c r="U34">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V34">
         <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y34">
-        <v>11.89664878034776</v>
+        <v>17.84497317052165</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4058,13 +4058,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.08492470880449643</v>
+        <v>0.08189972764223355</v>
       </c>
       <c r="C35">
-        <v>325.4470669612524</v>
+        <v>322.7924348986436</v>
       </c>
       <c r="D35">
-        <v>415.8480669612524</v>
+        <v>413.1934348986436</v>
       </c>
       <c r="E35">
         <v>-72.39899999999999</v>
@@ -4091,45 +4091,45 @@
         <v>30.5</v>
       </c>
       <c r="M35">
-        <v>2.6438643</v>
+        <v>1.7625762</v>
       </c>
       <c r="N35">
-        <v>27.8561357</v>
+        <v>28.7374238</v>
       </c>
       <c r="O35">
-        <v>6.128349854</v>
+        <v>6.322233236</v>
       </c>
       <c r="P35">
-        <v>21.727785846</v>
+        <v>22.415190564</v>
       </c>
       <c r="Q35">
-        <v>27.127785846</v>
+        <v>27.815190564</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.117417744484323</v>
+        <v>0.1160146979734829</v>
       </c>
       <c r="T35">
         <v>1.061865310241638</v>
       </c>
       <c r="U35">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V35">
         <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y35">
-        <v>11.53614427185238</v>
+        <v>17.30421640777857</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.08479473860892831</v>
+        <v>0.08176347640133111</v>
       </c>
       <c r="C36">
-        <v>322.9334289346331</v>
+        <v>320.2723520579292</v>
       </c>
       <c r="D36">
-        <v>416.6314289346332</v>
+        <v>413.9703520579292</v>
       </c>
       <c r="E36">
         <v>-69.10199999999999</v>
@@ -4173,45 +4173,45 @@
         <v>30.5</v>
       </c>
       <c r="M36">
-        <v>2.7239814</v>
+        <v>1.8159876</v>
       </c>
       <c r="N36">
-        <v>27.7760186</v>
+        <v>28.6840124</v>
       </c>
       <c r="O36">
-        <v>6.110724092</v>
+        <v>6.310482728</v>
       </c>
       <c r="P36">
-        <v>21.665294508</v>
+        <v>22.373529672</v>
       </c>
       <c r="Q36">
-        <v>27.065294508</v>
+        <v>27.773529672</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1187126948620126</v>
+        <v>0.1173746006080775</v>
       </c>
       <c r="T36">
         <v>1.075397030430182</v>
       </c>
       <c r="U36">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V36">
         <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y36">
-        <v>11.19684591091555</v>
+        <v>16.79526886637332</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4222,13 +4222,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.08466476841336017</v>
+        <v>0.0816272251604287</v>
       </c>
       <c r="C37">
-        <v>320.4227478252077</v>
+        <v>317.7551963563878</v>
       </c>
       <c r="D37">
-        <v>417.4177478252077</v>
+        <v>414.7501963563879</v>
       </c>
       <c r="E37">
         <v>-65.80499999999998</v>
@@ -4255,45 +4255,45 @@
         <v>30.5</v>
       </c>
       <c r="M37">
-        <v>2.804098500000001</v>
+        <v>1.869399</v>
       </c>
       <c r="N37">
-        <v>27.6959015</v>
+        <v>28.630601</v>
       </c>
       <c r="O37">
-        <v>6.093098329999999</v>
+        <v>6.29873222</v>
       </c>
       <c r="P37">
-        <v>21.60280317</v>
+        <v>22.33186878</v>
       </c>
       <c r="Q37">
-        <v>27.00280317</v>
+        <v>27.73186878</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.120047489866708</v>
+        <v>0.1187763464006596</v>
       </c>
       <c r="T37">
         <v>1.089345111239912</v>
       </c>
       <c r="U37">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V37">
         <v>0.22</v>
       </c>
       <c r="W37">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y37">
-        <v>10.87693602774653</v>
+        <v>16.31540404161979</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.08453479821779203</v>
+        <v>0.08149097391952626</v>
       </c>
       <c r="C38">
-        <v>317.9150404066241</v>
+        <v>315.2409843678239</v>
       </c>
       <c r="D38">
-        <v>418.2070404066241</v>
+        <v>415.5329843678239</v>
       </c>
       <c r="E38">
         <v>-62.508</v>
@@ -4337,45 +4337,45 @@
         <v>30.5</v>
       </c>
       <c r="M38">
-        <v>2.8842156</v>
+        <v>1.9228104</v>
       </c>
       <c r="N38">
-        <v>27.6157844</v>
+        <v>28.5771896</v>
       </c>
       <c r="O38">
-        <v>6.075472567999999</v>
+        <v>6.286981712</v>
       </c>
       <c r="P38">
-        <v>21.540311832</v>
+        <v>22.290207888</v>
       </c>
       <c r="Q38">
-        <v>26.940311832</v>
+        <v>27.690207888</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1214239972153</v>
+        <v>0.1202218967492598</v>
       </c>
       <c r="T38">
         <v>1.103729069574946</v>
       </c>
       <c r="U38">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V38">
         <v>0.22</v>
       </c>
       <c r="W38">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y38">
-        <v>10.57479891586468</v>
+        <v>15.86219837379702</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4386,13 +4386,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.08503974802222389</v>
+        <v>0.08135472267862383</v>
       </c>
       <c r="C39">
-        <v>311.5681511551847</v>
+        <v>312.7297327914009</v>
       </c>
       <c r="D39">
-        <v>415.1571511551847</v>
+        <v>416.3187327914009</v>
       </c>
       <c r="E39">
         <v>-59.211</v>
@@ -4419,45 +4419,45 @@
         <v>30.5</v>
       </c>
       <c r="M39">
-        <v>3.2327085</v>
+        <v>1.9762218</v>
       </c>
       <c r="N39">
-        <v>27.2672915</v>
+        <v>28.5237782</v>
       </c>
       <c r="O39">
-        <v>5.99880413</v>
+        <v>6.275231204</v>
       </c>
       <c r="P39">
-        <v>21.26848737</v>
+        <v>22.248546996</v>
       </c>
       <c r="Q39">
-        <v>26.66848737</v>
+        <v>27.648546996</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1228442032098792</v>
+        <v>0.1217133375851172</v>
       </c>
       <c r="T39">
         <v>1.118569661507917</v>
       </c>
       <c r="U39">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V39">
         <v>0.22</v>
       </c>
       <c r="W39">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y39">
-        <v>9.43481294400655</v>
+        <v>15.43349030964035</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4468,13 +4468,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.08492693782665577</v>
+        <v>0.08121847143772142</v>
       </c>
       <c r="C40">
-        <v>308.9486577956606</v>
+        <v>310.2214584528308</v>
       </c>
       <c r="D40">
-        <v>415.8346577956606</v>
+        <v>417.1074584528308</v>
       </c>
       <c r="E40">
         <v>-55.91399999999999</v>
@@ -4501,45 +4501,45 @@
         <v>30.5</v>
       </c>
       <c r="M40">
-        <v>3.320079</v>
+        <v>2.0296332</v>
       </c>
       <c r="N40">
-        <v>27.179921</v>
+        <v>28.4703668</v>
       </c>
       <c r="O40">
-        <v>5.97958262</v>
+        <v>6.263480696</v>
       </c>
       <c r="P40">
-        <v>21.20033838</v>
+        <v>22.206886104</v>
       </c>
       <c r="Q40">
-        <v>26.60033838</v>
+        <v>27.606886104</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1243102223010577</v>
+        <v>0.1232528894156797</v>
       </c>
       <c r="T40">
         <v>1.133888982212921</v>
       </c>
       <c r="U40">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V40">
         <v>0.22</v>
       </c>
       <c r="W40">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y40">
-        <v>9.186528392848484</v>
+        <v>15.02734582780771</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.08481412763108762</v>
+        <v>0.08108222019681896</v>
       </c>
       <c r="C41">
-        <v>306.3313793350054</v>
+        <v>307.7161783055749</v>
       </c>
       <c r="D41">
-        <v>416.5143793350054</v>
+        <v>417.8991783055749</v>
       </c>
       <c r="E41">
         <v>-52.61699999999999</v>
@@ -4583,45 +4583,45 @@
         <v>30.5</v>
       </c>
       <c r="M41">
-        <v>3.4074495</v>
+        <v>2.0830446</v>
       </c>
       <c r="N41">
-        <v>27.0925505</v>
+        <v>28.4169554</v>
       </c>
       <c r="O41">
-        <v>5.96036111</v>
+        <v>6.251730188</v>
       </c>
       <c r="P41">
-        <v>21.13218939</v>
+        <v>22.165225212</v>
       </c>
       <c r="Q41">
-        <v>26.53218939</v>
+        <v>27.565225212</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1258243075919469</v>
+        <v>0.1248429183554409</v>
       </c>
       <c r="T41">
         <v>1.149710575727924</v>
       </c>
       <c r="U41">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V41">
         <v>0.22</v>
       </c>
       <c r="W41">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y41">
-        <v>8.950976382775444</v>
+        <v>14.64202926812033</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4632,13 +4632,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.08470131743551948</v>
+        <v>0.08094596895591653</v>
       </c>
       <c r="C42">
-        <v>303.7163266523944</v>
+        <v>305.213909432057</v>
       </c>
       <c r="D42">
-        <v>417.1963266523944</v>
+        <v>418.693909432057</v>
       </c>
       <c r="E42">
         <v>-49.31999999999999</v>
@@ -4665,45 +4665,45 @@
         <v>30.5</v>
       </c>
       <c r="M42">
-        <v>3.49482</v>
+        <v>2.136456</v>
       </c>
       <c r="N42">
-        <v>27.00518</v>
+        <v>28.363544</v>
       </c>
       <c r="O42">
-        <v>5.9411396</v>
+        <v>6.23997968</v>
       </c>
       <c r="P42">
-        <v>21.0640404</v>
+        <v>22.12356432</v>
       </c>
       <c r="Q42">
-        <v>26.4640404</v>
+        <v>27.52356432</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1273888623925325</v>
+        <v>0.1264859482598609</v>
       </c>
       <c r="T42">
         <v>1.166059555693427</v>
       </c>
       <c r="U42">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V42">
         <v>0.22</v>
       </c>
       <c r="W42">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y42">
-        <v>8.727201973206059</v>
+        <v>14.27597853641732</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.08458850723995133</v>
+        <v>0.08080971771501412</v>
       </c>
       <c r="C43">
-        <v>301.1035106983688</v>
+        <v>302.7146690448939</v>
       </c>
       <c r="D43">
-        <v>417.8805106983689</v>
+        <v>419.4916690448939</v>
       </c>
       <c r="E43">
         <v>-46.023</v>
@@ -4747,45 +4747,45 @@
         <v>30.5</v>
       </c>
       <c r="M43">
-        <v>3.5821905</v>
+        <v>2.1898674</v>
       </c>
       <c r="N43">
-        <v>26.9178095</v>
+        <v>28.3101326</v>
       </c>
       <c r="O43">
-        <v>5.92191809</v>
+        <v>6.228229172</v>
       </c>
       <c r="P43">
-        <v>20.99589141</v>
+        <v>22.081903428</v>
       </c>
       <c r="Q43">
-        <v>26.39589141</v>
+        <v>27.481903428</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1290064529490701</v>
+        <v>0.1281846740932443</v>
       </c>
       <c r="T43">
         <v>1.182962738369625</v>
       </c>
       <c r="U43">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V43">
         <v>0.22</v>
       </c>
       <c r="W43">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y43">
-        <v>8.514343388493716</v>
+        <v>13.92778393796812</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4796,13 +4796,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.08447569704438322</v>
+        <v>0.08119762647411169</v>
       </c>
       <c r="C44">
-        <v>298.492942495421</v>
+        <v>297.1543885894595</v>
       </c>
       <c r="D44">
-        <v>418.566942495421</v>
+        <v>417.2283885894595</v>
       </c>
       <c r="E44">
         <v>-42.726</v>
@@ -4829,45 +4829,45 @@
         <v>30.5</v>
       </c>
       <c r="M44">
-        <v>3.669561</v>
+        <v>2.4648372</v>
       </c>
       <c r="N44">
-        <v>26.830439</v>
+        <v>28.0351628</v>
       </c>
       <c r="O44">
-        <v>5.90269658</v>
+        <v>6.167735816</v>
       </c>
       <c r="P44">
-        <v>20.92774242</v>
+        <v>21.867426984</v>
       </c>
       <c r="Q44">
-        <v>26.32774242</v>
+        <v>27.267426984</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1306798224903159</v>
+        <v>0.1299419766795029</v>
       </c>
       <c r="T44">
         <v>1.200448789413968</v>
       </c>
       <c r="U44">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V44">
         <v>0.22</v>
       </c>
       <c r="W44">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y44">
-        <v>8.311620926862911</v>
+        <v>12.37404239111614</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4878,13 +4878,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.08436288684881507</v>
+        <v>0.08107385523320926</v>
       </c>
       <c r="C45">
-        <v>295.8846331385877</v>
+        <v>294.5768828290771</v>
       </c>
       <c r="D45">
-        <v>419.2556331385877</v>
+        <v>417.9478828290771</v>
       </c>
       <c r="E45">
         <v>-39.429</v>
@@ -4911,45 +4911,45 @@
         <v>30.5</v>
       </c>
       <c r="M45">
-        <v>3.7569315</v>
+        <v>2.5235238</v>
       </c>
       <c r="N45">
-        <v>26.7430685</v>
+        <v>27.9764762</v>
       </c>
       <c r="O45">
-        <v>5.88347507</v>
+        <v>6.154824764</v>
       </c>
       <c r="P45">
-        <v>20.85959343</v>
+        <v>21.821651436</v>
       </c>
       <c r="Q45">
-        <v>26.25959343</v>
+        <v>27.221651436</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.1324119067523071</v>
+        <v>0.1317609390056303</v>
       </c>
       <c r="T45">
         <v>1.21854838610899</v>
       </c>
       <c r="U45">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V45">
         <v>0.22</v>
       </c>
       <c r="W45">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y45">
-        <v>8.11832741693587</v>
+        <v>12.08627396341576</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4960,13 +4960,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.08425007665324694</v>
+        <v>0.08095008399230683</v>
       </c>
       <c r="C46">
-        <v>293.278593796046</v>
+        <v>292.0018628353511</v>
       </c>
       <c r="D46">
-        <v>419.946593796046</v>
+        <v>418.6698628353511</v>
       </c>
       <c r="E46">
         <v>-36.13200000000001</v>
@@ -4993,45 +4993,45 @@
         <v>30.5</v>
       </c>
       <c r="M46">
-        <v>3.844302</v>
+        <v>2.5822104</v>
       </c>
       <c r="N46">
-        <v>26.655698</v>
+        <v>27.9177896</v>
       </c>
       <c r="O46">
-        <v>5.86425356</v>
+        <v>6.141913712</v>
       </c>
       <c r="P46">
-        <v>20.79144444</v>
+        <v>21.775875888</v>
       </c>
       <c r="Q46">
-        <v>26.19144444</v>
+        <v>27.175875888</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1342058511665124</v>
+        <v>0.1336448642719765</v>
       </c>
       <c r="T46">
         <v>1.237294396971691</v>
       </c>
       <c r="U46">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V46">
         <v>0.22</v>
       </c>
       <c r="W46">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y46">
-        <v>7.933819975641873</v>
+        <v>11.81158591879267</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5042,13 +5042,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.0845233664576788</v>
+        <v>0.08082631275140439</v>
       </c>
       <c r="C47">
-        <v>288.3116068846652</v>
+        <v>289.4293415126133</v>
       </c>
       <c r="D47">
-        <v>418.2766068846652</v>
+        <v>419.3943415126134</v>
       </c>
       <c r="E47">
         <v>-32.83499999999998</v>
@@ -5075,45 +5075,45 @@
         <v>30.5</v>
       </c>
       <c r="M47">
-        <v>4.094874</v>
+        <v>2.640897</v>
       </c>
       <c r="N47">
-        <v>26.405126</v>
+        <v>27.859103</v>
       </c>
       <c r="O47">
-        <v>5.80912772</v>
+        <v>6.12900266</v>
       </c>
       <c r="P47">
-        <v>20.59599828</v>
+        <v>21.73010034</v>
       </c>
       <c r="Q47">
-        <v>25.99599828</v>
+        <v>27.13010034</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1360650299230523</v>
+        <v>0.1355972959116443</v>
       </c>
       <c r="T47">
         <v>1.256722080956672</v>
       </c>
       <c r="U47">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V47">
         <v>0.22</v>
       </c>
       <c r="W47">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y47">
-        <v>7.448336627695992</v>
+        <v>11.54910623170839</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5124,13 +5124,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.08441913626211066</v>
+        <v>0.08070254151050198</v>
       </c>
       <c r="C48">
-        <v>285.6499551987366</v>
+        <v>286.8593318546705</v>
       </c>
       <c r="D48">
-        <v>418.9119551987366</v>
+        <v>420.1213318546705</v>
       </c>
       <c r="E48">
         <v>-29.53799999999998</v>
@@ -5157,45 +5157,45 @@
         <v>30.5</v>
       </c>
       <c r="M48">
-        <v>4.1858712</v>
+        <v>2.6995836</v>
       </c>
       <c r="N48">
-        <v>26.3141288</v>
+        <v>27.8004164</v>
       </c>
       <c r="O48">
-        <v>5.789108336</v>
+        <v>6.116091608</v>
       </c>
       <c r="P48">
-        <v>20.525020464</v>
+        <v>21.684324792</v>
       </c>
       <c r="Q48">
-        <v>25.925020464</v>
+        <v>27.084324792</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1379930671520568</v>
+        <v>0.1376220398342629</v>
       </c>
       <c r="T48">
         <v>1.276869308792948</v>
       </c>
       <c r="U48">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V48">
         <v>0.22</v>
       </c>
       <c r="W48">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y48">
-        <v>7.28641626622434</v>
+        <v>11.29803870493212</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5206,13 +5206,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.0843149060665425</v>
+        <v>0.08057877026959953</v>
       </c>
       <c r="C49">
-        <v>282.9902365951936</v>
+        <v>284.2918469455813</v>
       </c>
       <c r="D49">
-        <v>419.5492365951936</v>
+        <v>420.8508469455813</v>
       </c>
       <c r="E49">
         <v>-26.24099999999999</v>
@@ -5239,45 +5239,45 @@
         <v>30.5</v>
       </c>
       <c r="M49">
-        <v>4.2768684</v>
+        <v>2.7582702</v>
       </c>
       <c r="N49">
-        <v>26.2231316</v>
+        <v>27.7417298</v>
       </c>
       <c r="O49">
-        <v>5.769088952000001</v>
+        <v>6.103180556000001</v>
       </c>
       <c r="P49">
-        <v>20.454042648</v>
+        <v>21.638549244</v>
       </c>
       <c r="Q49">
-        <v>25.854042648</v>
+        <v>27.038549244</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1399938605029104</v>
+        <v>0.1397231891879236</v>
       </c>
       <c r="T49">
         <v>1.297776809377764</v>
       </c>
       <c r="U49">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V49">
         <v>0.22</v>
       </c>
       <c r="W49">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y49">
-        <v>7.13138613290042</v>
+        <v>11.05765490269953</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5288,13 +5288,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.08421067587097437</v>
+        <v>0.08045499902869711</v>
       </c>
       <c r="C50">
-        <v>280.3324599097425</v>
+        <v>281.726899960441</v>
       </c>
       <c r="D50">
-        <v>420.1884599097425</v>
+        <v>421.582899960441</v>
       </c>
       <c r="E50">
         <v>-22.94399999999999</v>
@@ -5321,45 +5321,45 @@
         <v>30.5</v>
       </c>
       <c r="M50">
-        <v>4.3678656</v>
+        <v>2.8169568</v>
       </c>
       <c r="N50">
-        <v>26.1321344</v>
+        <v>27.6830432</v>
       </c>
       <c r="O50">
-        <v>5.749069567999999</v>
+        <v>6.090269504</v>
       </c>
       <c r="P50">
-        <v>20.383064832</v>
+        <v>21.592773696</v>
       </c>
       <c r="Q50">
-        <v>25.783064832</v>
+        <v>26.992773696</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1420716074441815</v>
+        <v>0.1419051519782637</v>
       </c>
       <c r="T50">
         <v>1.319488444600457</v>
       </c>
       <c r="U50">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V50">
         <v>0.22</v>
       </c>
       <c r="W50">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y50">
-        <v>6.982815588464993</v>
+        <v>10.82728709222662</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5370,13 +5370,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.08410644567540623</v>
+        <v>0.08117206778779468</v>
       </c>
       <c r="C51">
-        <v>277.6766340320207</v>
+        <v>274.223760687755</v>
       </c>
       <c r="D51">
-        <v>420.8296340320207</v>
+        <v>417.3767606877551</v>
       </c>
       <c r="E51">
         <v>-19.64699999999999</v>
@@ -5403,45 +5403,45 @@
         <v>30.5</v>
       </c>
       <c r="M51">
-        <v>4.458862799999999</v>
+        <v>3.231059999999999</v>
       </c>
       <c r="N51">
-        <v>26.0411372</v>
+        <v>27.26894</v>
       </c>
       <c r="O51">
-        <v>5.729050184</v>
+        <v>5.9991668</v>
       </c>
       <c r="P51">
-        <v>20.312087016</v>
+        <v>21.2697732</v>
       </c>
       <c r="Q51">
-        <v>25.712087016</v>
+        <v>26.6697732</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1442308346576593</v>
+        <v>0.1441726819368523</v>
       </c>
       <c r="T51">
         <v>1.342051516498549</v>
       </c>
       <c r="U51">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V51">
         <v>0.22</v>
       </c>
       <c r="W51">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y51">
-        <v>6.840309147884076</v>
+        <v>9.439626624080026</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5452,13 +5452,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.08400221547983808</v>
+        <v>0.08106545654689225</v>
       </c>
       <c r="C52">
-        <v>275.0227679060075</v>
+        <v>271.5467951238445</v>
       </c>
       <c r="D52">
-        <v>421.4727679060076</v>
+        <v>417.9967951238445</v>
       </c>
       <c r="E52">
         <v>-16.34999999999999</v>
@@ -5485,45 +5485,45 @@
         <v>30.5</v>
       </c>
       <c r="M52">
-        <v>4.54986</v>
+        <v>3.296999999999999</v>
       </c>
       <c r="N52">
-        <v>25.95014</v>
+        <v>27.203</v>
       </c>
       <c r="O52">
-        <v>5.7090308</v>
+        <v>5.98466</v>
       </c>
       <c r="P52">
-        <v>20.2411092</v>
+        <v>21.21834</v>
       </c>
       <c r="Q52">
-        <v>25.6411092</v>
+        <v>26.61834</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1464764309596762</v>
+        <v>0.1465309130937845</v>
       </c>
       <c r="T52">
         <v>1.365517111272565</v>
       </c>
       <c r="U52">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V52">
         <v>0.22</v>
       </c>
       <c r="W52">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y52">
-        <v>6.703502964926394</v>
+        <v>9.250834091598424</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5534,13 +5534,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.08389798528426995</v>
+        <v>0.08095884530598983</v>
       </c>
       <c r="C53">
-        <v>272.3708705304405</v>
+        <v>268.8716744861353</v>
       </c>
       <c r="D53">
-        <v>422.1178705304405</v>
+        <v>418.6186744861353</v>
       </c>
       <c r="E53">
         <v>-13.053</v>
@@ -5567,45 +5567,45 @@
         <v>30.5</v>
       </c>
       <c r="M53">
-        <v>4.6408572</v>
+        <v>3.362939999999999</v>
       </c>
       <c r="N53">
-        <v>25.8591428</v>
+        <v>27.13706</v>
       </c>
       <c r="O53">
-        <v>5.689011416</v>
+        <v>5.9701532</v>
       </c>
       <c r="P53">
-        <v>20.170131384</v>
+        <v>21.1669068</v>
       </c>
       <c r="Q53">
-        <v>25.570131384</v>
+        <v>26.5669068</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1488136842536122</v>
+        <v>0.1489853985836527</v>
       </c>
       <c r="T53">
         <v>1.389940485425113</v>
       </c>
       <c r="U53">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V53">
         <v>0.22</v>
       </c>
       <c r="W53">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y53">
-        <v>6.572061730319994</v>
+        <v>9.069445187841593</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5616,13 +5616,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.08379375508870182</v>
+        <v>0.08085223406508737</v>
       </c>
       <c r="C54">
-        <v>269.7209509592357</v>
+        <v>266.1984070213251</v>
       </c>
       <c r="D54">
-        <v>422.7649509592356</v>
+        <v>419.2424070213251</v>
       </c>
       <c r="E54">
         <v>-9.756</v>
@@ -5649,45 +5649,45 @@
         <v>30.5</v>
       </c>
       <c r="M54">
-        <v>4.7318544</v>
+        <v>3.428879999999999</v>
       </c>
       <c r="N54">
-        <v>25.7681456</v>
+        <v>27.07112</v>
       </c>
       <c r="O54">
-        <v>5.668992032</v>
+        <v>5.9556464</v>
       </c>
       <c r="P54">
-        <v>20.099153568</v>
+        <v>21.1154736</v>
       </c>
       <c r="Q54">
-        <v>25.499153568</v>
+        <v>26.5154736</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1512483231014621</v>
+        <v>0.1515421543022654</v>
       </c>
       <c r="T54">
         <v>1.41538150016735</v>
       </c>
       <c r="U54">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V54">
         <v>0.22</v>
       </c>
       <c r="W54">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y54">
-        <v>6.44567592781384</v>
+        <v>8.895032780383101</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5698,13 +5698,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.08430962489313368</v>
+        <v>0.08074562282418495</v>
       </c>
       <c r="C55">
-        <v>263.2405782154469</v>
+        <v>263.5270010253336</v>
       </c>
       <c r="D55">
-        <v>419.581578215447</v>
+        <v>419.8680010253336</v>
       </c>
       <c r="E55">
         <v>-6.458999999999975</v>
@@ -5731,45 +5731,45 @@
         <v>30.5</v>
       </c>
       <c r="M55">
-        <v>5.0849631</v>
+        <v>3.49482</v>
       </c>
       <c r="N55">
-        <v>25.4150369</v>
+        <v>27.00518</v>
       </c>
       <c r="O55">
-        <v>5.591308118</v>
+        <v>5.9411396</v>
       </c>
       <c r="P55">
-        <v>19.823728782</v>
+        <v>21.0640404</v>
       </c>
       <c r="Q55">
-        <v>25.223728782</v>
+        <v>26.4640404</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1537865636024121</v>
+        <v>0.1542077081365637</v>
       </c>
       <c r="T55">
         <v>1.441905111281597</v>
       </c>
       <c r="U55">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V55">
         <v>0.22</v>
       </c>
       <c r="W55">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y55">
-        <v>5.998076957529937</v>
+        <v>8.727201973206061</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5780,13 +5780,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.08421709469756554</v>
+        <v>0.08063901158328253</v>
       </c>
       <c r="C56">
-        <v>260.5110382290691</v>
+        <v>260.8574648436719</v>
       </c>
       <c r="D56">
-        <v>420.1490382290691</v>
+        <v>420.495464843672</v>
       </c>
       <c r="E56">
         <v>-3.161999999999978</v>
@@ -5813,45 +5813,45 @@
         <v>30.5</v>
       </c>
       <c r="M56">
-        <v>5.180905800000001</v>
+        <v>3.56076</v>
       </c>
       <c r="N56">
-        <v>25.3190942</v>
+        <v>26.93924</v>
       </c>
       <c r="O56">
-        <v>5.570200723999999</v>
+        <v>5.9266328</v>
       </c>
       <c r="P56">
-        <v>19.748893476</v>
+        <v>21.0126072</v>
       </c>
       <c r="Q56">
-        <v>25.148893476</v>
+        <v>26.4126072</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.156435162386012</v>
+        <v>0.1569891556158316</v>
       </c>
       <c r="T56">
         <v>1.469581922879073</v>
       </c>
       <c r="U56">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V56">
         <v>0.22</v>
       </c>
       <c r="W56">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y56">
-        <v>5.887001458316419</v>
+        <v>8.565587121850392</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5862,13 +5862,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.08412456450199739</v>
+        <v>0.08053240034238009</v>
       </c>
       <c r="C57">
-        <v>257.7830352356137</v>
+        <v>258.1898068718131</v>
       </c>
       <c r="D57">
-        <v>420.7180352356138</v>
+        <v>421.1248068718131</v>
       </c>
       <c r="E57">
         <v>0.1350000000000193</v>
@@ -5895,45 +5895,45 @@
         <v>30.5</v>
       </c>
       <c r="M57">
-        <v>5.276848500000001</v>
+        <v>3.6267</v>
       </c>
       <c r="N57">
-        <v>25.2231515</v>
+        <v>26.8733</v>
       </c>
       <c r="O57">
-        <v>5.54909333</v>
+        <v>5.912126</v>
       </c>
       <c r="P57">
-        <v>19.67405817</v>
+        <v>20.961174</v>
       </c>
       <c r="Q57">
-        <v>25.07405817</v>
+        <v>26.361174</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1592014766711053</v>
+        <v>0.1598942229830669</v>
       </c>
       <c r="T57">
         <v>1.498488814991991</v>
       </c>
       <c r="U57">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V57">
         <v>0.22</v>
       </c>
       <c r="W57">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y57">
-        <v>5.779965068165212</v>
+        <v>8.409849174180385</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5944,13 +5944,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.08403203430642926</v>
+        <v>0.08042578910147766</v>
       </c>
       <c r="C58">
-        <v>255.0565754880787</v>
+        <v>255.5240355555658</v>
       </c>
       <c r="D58">
-        <v>421.2885754880788</v>
+        <v>421.7560355555658</v>
       </c>
       <c r="E58">
         <v>3.432000000000016</v>
@@ -5977,45 +5977,45 @@
         <v>30.5</v>
       </c>
       <c r="M58">
-        <v>5.3727912</v>
+        <v>3.692639999999999</v>
       </c>
       <c r="N58">
-        <v>25.1272088</v>
+        <v>26.80736</v>
       </c>
       <c r="O58">
-        <v>5.527985935999999</v>
+        <v>5.8976192</v>
       </c>
       <c r="P58">
-        <v>19.599222864</v>
+        <v>20.9097408</v>
       </c>
       <c r="Q58">
-        <v>24.999222864</v>
+        <v>26.3097408</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1620935325146119</v>
+        <v>0.1629313388669947</v>
       </c>
       <c r="T58">
         <v>1.528709656746406</v>
       </c>
       <c r="U58">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V58">
         <v>0.22</v>
       </c>
       <c r="W58">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y58">
-        <v>5.676751406233691</v>
+        <v>8.259673296070021</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6026,13 +6026,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.08393950411086112</v>
+        <v>0.08031917786057523</v>
       </c>
       <c r="C59">
-        <v>252.3316652734272</v>
+        <v>252.8601593914533</v>
       </c>
       <c r="D59">
-        <v>421.8606652734272</v>
+        <v>422.3891593914533</v>
       </c>
       <c r="E59">
         <v>6.729000000000013</v>
@@ -6059,45 +6059,45 @@
         <v>30.5</v>
       </c>
       <c r="M59">
-        <v>5.4687339</v>
+        <v>3.758579999999999</v>
       </c>
       <c r="N59">
-        <v>25.0312661</v>
+        <v>26.74142</v>
       </c>
       <c r="O59">
-        <v>5.506878542</v>
+        <v>5.883112400000001</v>
       </c>
       <c r="P59">
-        <v>19.524387558</v>
+        <v>20.8583076</v>
       </c>
       <c r="Q59">
-        <v>24.924387558</v>
+        <v>26.2583076</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.165120102583398</v>
+        <v>0.1661097159548262</v>
       </c>
       <c r="T59">
         <v>1.560336119047539</v>
       </c>
       <c r="U59">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V59">
         <v>0.22</v>
       </c>
       <c r="W59">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y59">
-        <v>5.577159276299766</v>
+        <v>8.114766747016162</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6108,13 +6108,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.08384697391529297</v>
+        <v>0.0802125666196728</v>
       </c>
       <c r="C60">
-        <v>249.6083109128183</v>
+        <v>250.1981869270942</v>
       </c>
       <c r="D60">
-        <v>422.4343109128183</v>
+        <v>423.0241869270942</v>
       </c>
       <c r="E60">
         <v>10.02599999999998</v>
@@ -6141,45 +6141,45 @@
         <v>30.5</v>
       </c>
       <c r="M60">
-        <v>5.564676599999999</v>
+        <v>3.824519999999999</v>
       </c>
       <c r="N60">
-        <v>24.9353234</v>
+        <v>26.67548</v>
       </c>
       <c r="O60">
-        <v>5.485771148</v>
+        <v>5.8686056</v>
       </c>
       <c r="P60">
-        <v>19.449552252</v>
+        <v>20.8068744</v>
       </c>
       <c r="Q60">
-        <v>24.849552252</v>
+        <v>26.2068744</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1682907950364118</v>
+        <v>0.1694394443325543</v>
       </c>
       <c r="T60">
         <v>1.59346860336301</v>
       </c>
       <c r="U60">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V60">
         <v>0.22</v>
       </c>
       <c r="W60">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y60">
-        <v>5.481001357742874</v>
+        <v>7.974856975515884</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6190,13 +6190,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.08375444371972483</v>
+        <v>0.08061217537877037</v>
       </c>
       <c r="C61">
-        <v>246.8865187618394</v>
+        <v>244.5307057363532</v>
       </c>
       <c r="D61">
-        <v>423.0095187618394</v>
+        <v>420.6537057363532</v>
       </c>
       <c r="E61">
         <v>13.32300000000001</v>
@@ -6223,45 +6223,45 @@
         <v>30.5</v>
       </c>
       <c r="M61">
-        <v>5.6606193</v>
+        <v>4.1044353</v>
       </c>
       <c r="N61">
-        <v>24.8393807</v>
+        <v>26.3955647</v>
       </c>
       <c r="O61">
-        <v>5.464663754</v>
+        <v>5.807024234</v>
       </c>
       <c r="P61">
-        <v>19.374716946</v>
+        <v>20.588540466</v>
       </c>
       <c r="Q61">
-        <v>24.774716946</v>
+        <v>25.988540466</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.171616155413963</v>
+        <v>0.1729315984848058</v>
       </c>
       <c r="T61">
         <v>1.628217306425577</v>
       </c>
       <c r="U61">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V61">
         <v>0.22</v>
       </c>
       <c r="W61">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y61">
-        <v>5.388103029645537</v>
+        <v>7.430985694913987</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6272,13 +6272,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.08366191352415669</v>
+        <v>0.08051414413786794</v>
       </c>
       <c r="C62">
-        <v>244.1662952107423</v>
+        <v>241.8127649283546</v>
       </c>
       <c r="D62">
-        <v>423.5862952107423</v>
+        <v>421.2327649283546</v>
       </c>
       <c r="E62">
         <v>16.62</v>
@@ -6305,45 +6305,45 @@
         <v>30.5</v>
       </c>
       <c r="M62">
-        <v>5.756562</v>
+        <v>4.174002</v>
       </c>
       <c r="N62">
-        <v>24.743438</v>
+        <v>26.325998</v>
       </c>
       <c r="O62">
-        <v>5.443556360000001</v>
+        <v>5.79171956</v>
       </c>
       <c r="P62">
-        <v>19.29988164</v>
+        <v>20.53427844</v>
       </c>
       <c r="Q62">
-        <v>24.69988164</v>
+        <v>25.93427844</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1751077838103917</v>
+        <v>0.1765983603446698</v>
       </c>
       <c r="T62">
         <v>1.664703444641274</v>
       </c>
       <c r="U62">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V62">
         <v>0.22</v>
       </c>
       <c r="W62">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y62">
-        <v>5.298301312484779</v>
+        <v>7.307135933332088</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.08356938332858856</v>
+        <v>0.08041611289696551</v>
       </c>
       <c r="C63">
-        <v>241.4476466846785</v>
+        <v>239.0964205487554</v>
       </c>
       <c r="D63">
-        <v>424.1646466846785</v>
+        <v>421.8134205487554</v>
       </c>
       <c r="E63">
         <v>19.917</v>
@@ -6387,45 +6387,45 @@
         <v>30.5</v>
       </c>
       <c r="M63">
-        <v>5.8525047</v>
+        <v>4.2435687</v>
       </c>
       <c r="N63">
-        <v>24.6474953</v>
+        <v>26.2564313</v>
       </c>
       <c r="O63">
-        <v>5.422448966</v>
+        <v>5.776414886</v>
       </c>
       <c r="P63">
-        <v>19.225046334</v>
+        <v>20.480016414</v>
       </c>
       <c r="Q63">
-        <v>24.625046334</v>
+        <v>25.880016414</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.178778470073304</v>
+        <v>0.1804531612742705</v>
       </c>
       <c r="T63">
         <v>1.703060666868031</v>
       </c>
       <c r="U63">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V63">
         <v>0.22</v>
       </c>
       <c r="W63">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y63">
-        <v>5.211443913919454</v>
+        <v>7.187346819670905</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6436,13 +6436,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.08347685313302042</v>
+        <v>0.08031808165606308</v>
       </c>
       <c r="C64">
-        <v>238.7305796439383</v>
+        <v>236.3816792085423</v>
       </c>
       <c r="D64">
-        <v>424.7445796439383</v>
+        <v>422.3956792085423</v>
       </c>
       <c r="E64">
         <v>23.214</v>
@@ -6469,45 +6469,45 @@
         <v>30.5</v>
       </c>
       <c r="M64">
-        <v>5.9484474</v>
+        <v>4.3131354</v>
       </c>
       <c r="N64">
-        <v>24.5515526</v>
+        <v>26.1868646</v>
       </c>
       <c r="O64">
-        <v>5.401341572000001</v>
+        <v>5.761110212</v>
       </c>
       <c r="P64">
-        <v>19.150211028</v>
+        <v>20.425754388</v>
       </c>
       <c r="Q64">
-        <v>24.550211028</v>
+        <v>25.825754388</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1826423503500537</v>
+        <v>0.1845108464633239</v>
       </c>
       <c r="T64">
         <v>1.743436690264618</v>
       </c>
       <c r="U64">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V64">
         <v>0.22</v>
       </c>
       <c r="W64">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y64">
-        <v>5.127388366920753</v>
+        <v>7.071421870966536</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6518,13 +6518,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.08338432293745229</v>
+        <v>0.08022005041516064</v>
       </c>
       <c r="C65">
-        <v>236.0151005841913</v>
+        <v>233.6685475552544</v>
       </c>
       <c r="D65">
-        <v>425.3261005841914</v>
+        <v>422.9795475552544</v>
       </c>
       <c r="E65">
         <v>26.511</v>
@@ -6551,45 +6551,45 @@
         <v>30.5</v>
       </c>
       <c r="M65">
-        <v>6.044390099999999</v>
+        <v>4.382702099999999</v>
       </c>
       <c r="N65">
-        <v>24.4556099</v>
+        <v>26.1172979</v>
       </c>
       <c r="O65">
-        <v>5.380234177999999</v>
+        <v>5.745805538</v>
       </c>
       <c r="P65">
-        <v>19.075375722</v>
+        <v>20.371492362</v>
       </c>
       <c r="Q65">
-        <v>24.475375722</v>
+        <v>25.771492362</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.1867150890201413</v>
+        <v>0.1887878659869207</v>
       </c>
       <c r="T65">
         <v>1.785995201412372</v>
       </c>
       <c r="U65">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V65">
         <v>0.22</v>
       </c>
       <c r="W65">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y65">
-        <v>5.046001249985503</v>
+        <v>6.959177079363894</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6600,13 +6600,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.08329179274188415</v>
+        <v>0.08012201917425821</v>
       </c>
       <c r="C66">
-        <v>233.3012160367294</v>
+        <v>230.9570322732369</v>
       </c>
       <c r="D66">
-        <v>425.9092160367294</v>
+        <v>423.565032273237</v>
       </c>
       <c r="E66">
         <v>29.80800000000002</v>
@@ -6633,45 +6633,45 @@
         <v>30.5</v>
       </c>
       <c r="M66">
-        <v>6.1403328</v>
+        <v>4.452268800000001</v>
       </c>
       <c r="N66">
-        <v>24.3596672</v>
+        <v>26.0477312</v>
       </c>
       <c r="O66">
-        <v>5.359126784</v>
+        <v>5.730500864000001</v>
       </c>
       <c r="P66">
-        <v>19.000540416</v>
+        <v>20.317230336</v>
       </c>
       <c r="Q66">
-        <v>24.400540416</v>
+        <v>25.717230336</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1910140909496782</v>
+        <v>0.1933024977062728</v>
       </c>
       <c r="T66">
         <v>1.830918074290556</v>
       </c>
       <c r="U66">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V66">
         <v>0.22</v>
       </c>
       <c r="W66">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y66">
-        <v>4.96715748045448</v>
+        <v>6.850439937498831</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6682,13 +6682,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.08319926254631602</v>
+        <v>0.08002398793335579</v>
       </c>
       <c r="C67">
-        <v>230.5889325687103</v>
+        <v>228.2471400838958</v>
       </c>
       <c r="D67">
-        <v>426.4939325687103</v>
+        <v>424.1521400838959</v>
       </c>
       <c r="E67">
         <v>33.10500000000002</v>
@@ -6715,45 +6715,45 @@
         <v>30.5</v>
       </c>
       <c r="M67">
-        <v>6.236275500000001</v>
+        <v>4.5218355</v>
       </c>
       <c r="N67">
-        <v>24.2637245</v>
+        <v>25.9781645</v>
       </c>
       <c r="O67">
-        <v>5.338019389999999</v>
+        <v>5.715196189999999</v>
       </c>
       <c r="P67">
-        <v>18.92570511</v>
+        <v>20.26296831</v>
       </c>
       <c r="Q67">
-        <v>24.32570511</v>
+        <v>25.66296831</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.1955587501323315</v>
+        <v>0.1980751083810166</v>
       </c>
       <c r="T67">
         <v>1.878407968476066</v>
       </c>
       <c r="U67">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V67">
         <v>0.22</v>
       </c>
       <c r="W67">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y67">
-        <v>4.890739673062871</v>
+        <v>6.745048553845003</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6764,13 +6764,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.08310673235074786</v>
+        <v>0.07992595669245336</v>
       </c>
       <c r="C68">
-        <v>227.8782567834049</v>
+        <v>225.5388777459555</v>
       </c>
       <c r="D68">
-        <v>427.0802567834049</v>
+        <v>424.7408777459555</v>
       </c>
       <c r="E68">
         <v>36.40200000000002</v>
@@ -6797,45 +6797,45 @@
         <v>30.5</v>
       </c>
       <c r="M68">
-        <v>6.332218200000001</v>
+        <v>4.5914022</v>
       </c>
       <c r="N68">
-        <v>24.1677818</v>
+        <v>25.9085978</v>
       </c>
       <c r="O68">
-        <v>5.316911996</v>
+        <v>5.699891516</v>
       </c>
       <c r="P68">
-        <v>18.850869804</v>
+        <v>20.208706284</v>
       </c>
       <c r="Q68">
-        <v>24.250869804</v>
+        <v>25.608706284</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.200370742208082</v>
+        <v>0.203128460860157</v>
       </c>
       <c r="T68">
         <v>1.928691385848958</v>
       </c>
       <c r="U68">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V68">
         <v>0.22</v>
       </c>
       <c r="W68">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y68">
-        <v>4.816637556804343</v>
+        <v>6.642850848483715</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6846,13 +6846,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.08301420215517971</v>
+        <v>0.07982792545155092</v>
       </c>
       <c r="C69">
-        <v>225.1691953204455</v>
+        <v>222.8322520557179</v>
       </c>
       <c r="D69">
-        <v>427.6681953204455</v>
+        <v>425.3312520557179</v>
       </c>
       <c r="E69">
         <v>39.69900000000001</v>
@@ -6879,45 +6879,45 @@
         <v>30.5</v>
       </c>
       <c r="M69">
-        <v>6.4281609</v>
+        <v>4.6609689</v>
       </c>
       <c r="N69">
-        <v>24.0718391</v>
+        <v>25.8390311</v>
       </c>
       <c r="O69">
-        <v>5.295804602</v>
+        <v>5.684586842</v>
       </c>
       <c r="P69">
-        <v>18.776034498</v>
+        <v>20.154444258</v>
       </c>
       <c r="Q69">
-        <v>24.176034498</v>
+        <v>25.554444258</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.2054743701672113</v>
+        <v>0.2084880771259119</v>
       </c>
       <c r="T69">
         <v>1.982022283062631</v>
       </c>
       <c r="U69">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V69">
         <v>0.22</v>
       </c>
       <c r="W69">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y69">
-        <v>4.74474744401622</v>
+        <v>6.543703820894406</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6928,13 +6928,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.08292167195961159</v>
+        <v>0.07972989421064851</v>
       </c>
       <c r="C70">
-        <v>222.4617548560762</v>
+        <v>220.1272698473234</v>
       </c>
       <c r="D70">
-        <v>428.2577548560762</v>
+        <v>425.9232698473234</v>
       </c>
       <c r="E70">
         <v>42.99600000000001</v>
@@ -6961,45 +6961,45 @@
         <v>30.5</v>
       </c>
       <c r="M70">
-        <v>6.5241036</v>
+        <v>4.730535600000001</v>
       </c>
       <c r="N70">
-        <v>23.9758964</v>
+        <v>25.7694644</v>
       </c>
       <c r="O70">
-        <v>5.274697208</v>
+        <v>5.669282168000001</v>
       </c>
       <c r="P70">
-        <v>18.701199192</v>
+        <v>20.100182232</v>
       </c>
       <c r="Q70">
-        <v>24.101199192</v>
+        <v>25.500182232</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2108969748737863</v>
+        <v>0.2141826694082766</v>
       </c>
       <c r="T70">
         <v>2.03868636135216</v>
       </c>
       <c r="U70">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V70">
         <v>0.22</v>
       </c>
       <c r="W70">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y70">
-        <v>4.674971746310098</v>
+        <v>6.447472882351842</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7010,13 +7010,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.08282914176404345</v>
+        <v>0.08043916296974608</v>
       </c>
       <c r="C71">
-        <v>219.7559421034066</v>
+        <v>212.5837471660842</v>
       </c>
       <c r="D71">
-        <v>428.8489421034066</v>
+        <v>421.6767471660843</v>
       </c>
       <c r="E71">
         <v>46.29300000000003</v>
@@ -7043,37 +7043,37 @@
         <v>30.5</v>
       </c>
       <c r="M71">
-        <v>6.620046300000001</v>
+        <v>5.1413418</v>
       </c>
       <c r="N71">
-        <v>23.8799537</v>
+        <v>25.3586582</v>
       </c>
       <c r="O71">
-        <v>5.253589814</v>
+        <v>5.578904804</v>
       </c>
       <c r="P71">
-        <v>18.626363886</v>
+        <v>19.779753396</v>
       </c>
       <c r="Q71">
-        <v>24.026363886</v>
+        <v>25.179753396</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2166694250453015</v>
+        <v>0.2202446547411164</v>
       </c>
       <c r="T71">
         <v>2.099006186628109</v>
       </c>
       <c r="U71">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V71">
         <v>0.22</v>
       </c>
       <c r="W71">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>4.607218532595459</v>
+        <v>5.932303508784419</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7092,13 +7092,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.08273661156847531</v>
+        <v>0.08035283172884364</v>
       </c>
       <c r="C72">
-        <v>217.0517638126655</v>
+        <v>209.7990965821002</v>
       </c>
       <c r="D72">
-        <v>429.4417638126655</v>
+        <v>422.1890965821003</v>
       </c>
       <c r="E72">
         <v>49.59000000000003</v>
@@ -7125,37 +7125,37 @@
         <v>30.5</v>
       </c>
       <c r="M72">
-        <v>6.715989</v>
+        <v>5.215854</v>
       </c>
       <c r="N72">
-        <v>23.784011</v>
+        <v>25.284146</v>
       </c>
       <c r="O72">
-        <v>5.23248242</v>
+        <v>5.56251212</v>
       </c>
       <c r="P72">
-        <v>18.55152858</v>
+        <v>19.72163388</v>
       </c>
       <c r="Q72">
-        <v>23.95152858</v>
+        <v>25.12163388</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2228267052282511</v>
+        <v>0.2267107724294788</v>
       </c>
       <c r="T72">
         <v>2.163347333589121</v>
       </c>
       <c r="U72">
-        <v>0.0291</v>
+        <v>0.0226</v>
       </c>
       <c r="V72">
         <v>0.22</v>
       </c>
       <c r="W72">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>4.541401124986953</v>
+        <v>5.847556315801784</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7174,13 +7174,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1021932213729072</v>
+        <v>0.08026650048794121</v>
       </c>
       <c r="C73">
-        <v>117.0402218677081</v>
+        <v>207.0156925513647</v>
       </c>
       <c r="D73">
-        <v>332.7272218677081</v>
+        <v>422.7026925513647</v>
       </c>
       <c r="E73">
         <v>52.887</v>
@@ -7207,45 +7207,45 @@
         <v>30.5</v>
       </c>
       <c r="M73">
-        <v>15.0752028</v>
+        <v>5.290366199999999</v>
       </c>
       <c r="N73">
-        <v>15.4247972</v>
+        <v>25.2096338</v>
       </c>
       <c r="O73">
-        <v>3.393455384</v>
+        <v>5.546119436</v>
       </c>
       <c r="P73">
-        <v>12.031341816</v>
+        <v>19.663514364</v>
       </c>
       <c r="Q73">
-        <v>17.431341816</v>
+        <v>25.063514364</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2294086254238178</v>
+        <v>0.2336228292687628</v>
       </c>
       <c r="T73">
         <v>2.232125801030203</v>
       </c>
       <c r="U73">
-        <v>0.0644</v>
+        <v>0.0226</v>
       </c>
       <c r="V73">
         <v>0.22</v>
       </c>
       <c r="W73">
-        <v>0.050232</v>
+        <v>0.017628</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>B2/B</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y73">
-        <v>2.023190029655853</v>
+        <v>5.7651963676919</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7256,13 +7256,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.108441311177339</v>
+        <v>0.08018016924703879</v>
       </c>
       <c r="C74">
-        <v>91.30280585687458</v>
+        <v>204.2335396287407</v>
       </c>
       <c r="D74">
-        <v>310.2868058568746</v>
+        <v>423.2175396287407</v>
       </c>
       <c r="E74">
         <v>56.184</v>
@@ -7289,45 +7289,45 @@
         <v>30.5</v>
       </c>
       <c r="M74">
-        <v>17.8512768</v>
+        <v>5.364878399999999</v>
       </c>
       <c r="N74">
-        <v>12.6487232</v>
+        <v>25.1351216</v>
       </c>
       <c r="O74">
-        <v>2.782719104</v>
+        <v>5.529726752</v>
       </c>
       <c r="P74">
-        <v>9.866004095999999</v>
+        <v>19.605394848</v>
       </c>
       <c r="Q74">
-        <v>15.266004096</v>
+        <v>25.005394848</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2364606827762108</v>
+        <v>0.2410286044537099</v>
       </c>
       <c r="T74">
         <v>2.305817016145649</v>
       </c>
       <c r="U74">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V74">
         <v>0.22</v>
       </c>
       <c r="W74">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y74">
-        <v>1.708561261007392</v>
+        <v>5.685124195918402</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7338,13 +7338,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1087083609817709</v>
+        <v>0.08009383800613634</v>
       </c>
       <c r="C75">
-        <v>87.11393746154124</v>
+        <v>201.4526423913097</v>
       </c>
       <c r="D75">
-        <v>309.3949374615412</v>
+        <v>423.7336423913097</v>
       </c>
       <c r="E75">
         <v>59.48099999999999</v>
@@ -7371,45 +7371,45 @@
         <v>30.5</v>
       </c>
       <c r="M75">
-        <v>18.0992112</v>
+        <v>5.439390599999999</v>
       </c>
       <c r="N75">
-        <v>12.4007888</v>
+        <v>25.0606094</v>
       </c>
       <c r="O75">
-        <v>2.728173536</v>
+        <v>5.513334068</v>
       </c>
       <c r="P75">
-        <v>9.672615264000001</v>
+        <v>19.547275332</v>
       </c>
       <c r="Q75">
-        <v>15.072615264</v>
+        <v>24.947275332</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2440351147472996</v>
+        <v>0.2489829555782827</v>
       </c>
       <c r="T75">
         <v>2.384966839788163</v>
       </c>
       <c r="U75">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V75">
         <v>0.22</v>
       </c>
       <c r="W75">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y75">
-        <v>1.685156312226469</v>
+        <v>5.607245782275684</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7420,13 +7420,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1089754107862027</v>
+        <v>0.0800075067652339</v>
       </c>
       <c r="C76">
-        <v>82.93018142962106</v>
+        <v>198.6730054385066</v>
       </c>
       <c r="D76">
-        <v>308.5081814296211</v>
+        <v>424.2510054385066</v>
       </c>
       <c r="E76">
         <v>62.77799999999999</v>
@@ -7453,45 +7453,45 @@
         <v>30.5</v>
       </c>
       <c r="M76">
-        <v>18.3471456</v>
+        <v>5.513902799999999</v>
       </c>
       <c r="N76">
-        <v>12.1528544</v>
+        <v>24.9860972</v>
       </c>
       <c r="O76">
-        <v>2.673627968</v>
+        <v>5.496941384</v>
       </c>
       <c r="P76">
-        <v>9.479226432000003</v>
+        <v>19.489155816</v>
       </c>
       <c r="Q76">
-        <v>14.879226432</v>
+        <v>24.889155816</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.252192195331549</v>
+        <v>0.2575491798662842</v>
       </c>
       <c r="T76">
         <v>2.47020511140318</v>
       </c>
       <c r="U76">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V76">
         <v>0.22</v>
       </c>
       <c r="W76">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y76">
-        <v>1.662383929628814</v>
+        <v>5.53147219062331</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7502,13 +7502,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1092424605906346</v>
+        <v>0.07992117552433146</v>
       </c>
       <c r="C77">
-        <v>78.75149392914579</v>
+        <v>195.8946333922567</v>
       </c>
       <c r="D77">
-        <v>307.6264939291458</v>
+        <v>424.7696333922567</v>
       </c>
       <c r="E77">
         <v>66.07499999999999</v>
@@ -7535,45 +7535,45 @@
         <v>30.5</v>
       </c>
       <c r="M77">
-        <v>18.59508</v>
+        <v>5.588414999999999</v>
       </c>
       <c r="N77">
-        <v>11.90492</v>
+        <v>24.911585</v>
       </c>
       <c r="O77">
-        <v>2.6190824</v>
+        <v>5.480548700000001</v>
       </c>
       <c r="P77">
-        <v>9.285837600000001</v>
+        <v>19.4310363</v>
       </c>
       <c r="Q77">
-        <v>14.6858376</v>
+        <v>24.8310363</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2610018423625384</v>
+        <v>0.2668007020973259</v>
       </c>
       <c r="T77">
         <v>2.562262444747398</v>
       </c>
       <c r="U77">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V77">
         <v>0.22</v>
       </c>
       <c r="W77">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y77">
-        <v>1.640218810567096</v>
+        <v>5.457719228081666</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7584,13 +7584,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1095095103950665</v>
+        <v>0.07983484428342905</v>
       </c>
       <c r="C78">
-        <v>74.57783162779026</v>
+        <v>193.1175308971135</v>
       </c>
       <c r="D78">
-        <v>306.7498316277903</v>
+        <v>425.2895308971135</v>
       </c>
       <c r="E78">
         <v>69.37200000000001</v>
@@ -7617,45 +7617,45 @@
         <v>30.5</v>
       </c>
       <c r="M78">
-        <v>18.8430144</v>
+        <v>5.662927199999999</v>
       </c>
       <c r="N78">
-        <v>11.6569856</v>
+        <v>24.8370728</v>
       </c>
       <c r="O78">
-        <v>2.564536832</v>
+        <v>5.464156016</v>
       </c>
       <c r="P78">
-        <v>9.092448767999999</v>
+        <v>19.372916784</v>
       </c>
       <c r="Q78">
-        <v>14.492448768</v>
+        <v>24.772916784</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2705456266461103</v>
+        <v>0.2768231845142877</v>
       </c>
       <c r="T78">
         <v>2.661991222536968</v>
       </c>
       <c r="U78">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V78">
         <v>0.22</v>
       </c>
       <c r="W78">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y78">
-        <v>1.618636984112266</v>
+        <v>5.385907132975328</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7666,13 +7666,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.1097765601994983</v>
+        <v>0.07974851304252661</v>
       </c>
       <c r="C79">
-        <v>70.4091516857728</v>
+        <v>190.3417026203973</v>
       </c>
       <c r="D79">
-        <v>305.8781516857728</v>
+        <v>425.8107026203974</v>
       </c>
       <c r="E79">
         <v>72.66900000000001</v>
@@ -7699,45 +7699,45 @@
         <v>30.5</v>
       </c>
       <c r="M79">
-        <v>19.0909488</v>
+        <v>5.7374394</v>
       </c>
       <c r="N79">
-        <v>11.4090512</v>
+        <v>24.7625606</v>
       </c>
       <c r="O79">
-        <v>2.509991264</v>
+        <v>5.447763332</v>
       </c>
       <c r="P79">
-        <v>8.899059936</v>
+        <v>19.314797268</v>
       </c>
       <c r="Q79">
-        <v>14.299059936</v>
+        <v>24.714797268</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2809193052152101</v>
+        <v>0.2877171871414201</v>
       </c>
       <c r="T79">
         <v>2.770392067960413</v>
       </c>
       <c r="U79">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V79">
         <v>0.22</v>
       </c>
       <c r="W79">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y79">
-        <v>1.597615724578341</v>
+        <v>5.315960287092532</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7748,13 +7748,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.1100436100039302</v>
+        <v>0.0796621818016242</v>
       </c>
       <c r="C80">
-        <v>66.24541174887662</v>
+        <v>187.5671532523347</v>
       </c>
       <c r="D80">
-        <v>305.0114117488766</v>
+        <v>426.3331532523347</v>
       </c>
       <c r="E80">
         <v>75.96600000000001</v>
@@ -7781,45 +7781,45 @@
         <v>30.5</v>
       </c>
       <c r="M80">
-        <v>19.3388832</v>
+        <v>5.8119516</v>
       </c>
       <c r="N80">
-        <v>11.1611168</v>
+        <v>24.6880484</v>
       </c>
       <c r="O80">
-        <v>2.455445696</v>
+        <v>5.431370648</v>
       </c>
       <c r="P80">
-        <v>8.705671103999999</v>
+        <v>19.256677752</v>
       </c>
       <c r="Q80">
-        <v>14.105671104</v>
+        <v>24.656677752</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.29223604547241</v>
+        <v>0.2996015536437464</v>
       </c>
       <c r="T80">
         <v>2.88864753569508</v>
       </c>
       <c r="U80">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V80">
         <v>0.22</v>
       </c>
       <c r="W80">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y80">
-        <v>1.577133471699131</v>
+        <v>5.247806950078525</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7830,13 +7830,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.110310659808362</v>
+        <v>0.07957585056072176</v>
       </c>
       <c r="C81">
-        <v>62.08656994159071</v>
+        <v>184.7938875061993</v>
       </c>
       <c r="D81">
-        <v>304.1495699415908</v>
+        <v>426.8568875061994</v>
       </c>
       <c r="E81">
         <v>79.26300000000003</v>
@@ -7863,45 +7863,45 @@
         <v>30.5</v>
       </c>
       <c r="M81">
-        <v>19.5868176</v>
+        <v>5.8864638</v>
       </c>
       <c r="N81">
-        <v>10.9131824</v>
+        <v>24.6135362</v>
       </c>
       <c r="O81">
-        <v>2.400900127999999</v>
+        <v>5.414977963999999</v>
       </c>
       <c r="P81">
-        <v>8.512282271999997</v>
+        <v>19.198558236</v>
       </c>
       <c r="Q81">
-        <v>13.912282272</v>
+        <v>24.598558236</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.3046305705160098</v>
+        <v>0.3126177645748656</v>
       </c>
       <c r="T81">
         <v>3.018165428928287</v>
       </c>
       <c r="U81">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V81">
         <v>0.22</v>
       </c>
       <c r="W81">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y81">
-        <v>1.557169756867496</v>
+        <v>5.18137901400158</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7912,13 +7912,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.1105777096127939</v>
+        <v>0.07948951931981933</v>
       </c>
       <c r="C82">
-        <v>57.93258486036467</v>
+        <v>182.0219101184535</v>
       </c>
       <c r="D82">
-        <v>303.2925848603647</v>
+        <v>427.3819101184536</v>
       </c>
       <c r="E82">
         <v>82.56</v>
@@ -7945,45 +7945,45 @@
         <v>30.5</v>
       </c>
       <c r="M82">
-        <v>19.834752</v>
+        <v>5.960976</v>
       </c>
       <c r="N82">
-        <v>10.665248</v>
+        <v>24.539024</v>
       </c>
       <c r="O82">
-        <v>2.34635456</v>
+        <v>5.398585280000001</v>
       </c>
       <c r="P82">
-        <v>8.318893439999998</v>
+        <v>19.14043872</v>
       </c>
       <c r="Q82">
-        <v>13.71889344</v>
+        <v>24.54043872</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.3182645480639696</v>
+        <v>0.3269355965990967</v>
       </c>
       <c r="T82">
         <v>3.160635111484815</v>
       </c>
       <c r="U82">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V82">
         <v>0.22</v>
       </c>
       <c r="W82">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y82">
-        <v>1.537705134906653</v>
+        <v>5.116611776326562</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.1108447594172258</v>
+        <v>0.0794031880789169</v>
       </c>
       <c r="C83">
-        <v>53.78341556697899</v>
+        <v>179.2512258488914</v>
       </c>
       <c r="D83">
-        <v>302.440415566979</v>
+        <v>427.9082258488914</v>
       </c>
       <c r="E83">
         <v>85.85700000000003</v>
@@ -8027,45 +8027,45 @@
         <v>30.5</v>
       </c>
       <c r="M83">
-        <v>20.0826864</v>
+        <v>6.0354882</v>
       </c>
       <c r="N83">
-        <v>10.4173136</v>
+        <v>24.4645118</v>
       </c>
       <c r="O83">
-        <v>2.291808991999999</v>
+        <v>5.382192596</v>
       </c>
       <c r="P83">
-        <v>8.125504607999996</v>
+        <v>19.082319204</v>
       </c>
       <c r="Q83">
-        <v>13.52550460799999</v>
+        <v>24.482319204</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.3333336811432936</v>
+        <v>0.3427605688364048</v>
       </c>
       <c r="T83">
         <v>3.318101602731504</v>
       </c>
       <c r="U83">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V83">
         <v>0.22</v>
       </c>
       <c r="W83">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y83">
-        <v>1.518721120895459</v>
+        <v>5.053443729705246</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8076,13 +8076,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.1111118092216576</v>
+        <v>0.07931685683801447</v>
       </c>
       <c r="C84">
-        <v>49.63902158202563</v>
+        <v>176.4818394807824</v>
       </c>
       <c r="D84">
-        <v>301.5930215820256</v>
+        <v>428.4358394807824</v>
       </c>
       <c r="E84">
         <v>89.154</v>
@@ -8109,45 +8109,45 @@
         <v>30.5</v>
       </c>
       <c r="M84">
-        <v>20.3306208</v>
+        <v>6.1100004</v>
       </c>
       <c r="N84">
-        <v>10.1693792</v>
+        <v>24.3899996</v>
       </c>
       <c r="O84">
-        <v>2.237263424</v>
+        <v>5.365799912</v>
       </c>
       <c r="P84">
-        <v>7.932115776000002</v>
+        <v>19.024199688</v>
       </c>
       <c r="Q84">
-        <v>13.332115776</v>
+        <v>24.424199688</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.3500771623425425</v>
+        <v>0.3603438713223027</v>
       </c>
       <c r="T84">
         <v>3.49306437078338</v>
       </c>
       <c r="U84">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V84">
         <v>0.22</v>
       </c>
       <c r="W84">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y84">
-        <v>1.500200131616247</v>
+        <v>4.991816367147864</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8158,13 +8158,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.1386769246870102</v>
+        <v>0.07923052559711204</v>
       </c>
       <c r="C85">
-        <v>-21.31467217580516</v>
+        <v>173.7137558210162</v>
       </c>
       <c r="D85">
-        <v>233.9363278241948</v>
+        <v>428.9647558210162</v>
       </c>
       <c r="E85">
         <v>92.45100000000002</v>
@@ -8191,45 +8191,45 @@
         <v>30.5</v>
       </c>
       <c r="M85">
-        <v>31.6066905</v>
+        <v>6.1845126</v>
       </c>
       <c r="N85">
-        <v>-1.106690499999999</v>
+        <v>24.3154874</v>
       </c>
       <c r="O85">
-        <v>-0.2434719099999998</v>
+        <v>5.349407228</v>
       </c>
       <c r="P85">
-        <v>-0.8632185899999993</v>
+        <v>18.966080172</v>
       </c>
       <c r="Q85">
-        <v>4.53678141</v>
+        <v>24.366080172</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.3715515275795688</v>
+        <v>0.379995797630071</v>
       </c>
       <c r="T85">
-        <v>3.717463009233529</v>
+        <v>3.688610993900184</v>
       </c>
       <c r="U85">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V85">
-        <v>0.2122968236740889</v>
+        <v>0.22</v>
       </c>
       <c r="W85">
-        <v>0.09097971686564273</v>
+        <v>0.017628</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y85">
-        <v>0.9649855621549495</v>
+        <v>4.931674001278614</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8240,13 +8240,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.1396739246870101</v>
+        <v>0.07914419435620962</v>
       </c>
       <c r="C86">
-        <v>-26.49451006465085</v>
+        <v>170.9469797002488</v>
       </c>
       <c r="D86">
-        <v>232.0534899353491</v>
+        <v>429.4949797002488</v>
       </c>
       <c r="E86">
         <v>95.74799999999999</v>
@@ -8273,45 +8273,45 @@
         <v>30.5</v>
       </c>
       <c r="M86">
-        <v>31.98749399999999</v>
+        <v>6.259024799999999</v>
       </c>
       <c r="N86">
-        <v>-1.487493999999995</v>
+        <v>24.2409752</v>
       </c>
       <c r="O86">
-        <v>-0.3272486799999988</v>
+        <v>5.333014544</v>
       </c>
       <c r="P86">
-        <v>-1.160245319999996</v>
+        <v>18.907960656</v>
       </c>
       <c r="Q86">
-        <v>4.239754680000003</v>
+        <v>24.307960656</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.3937859980532917</v>
+        <v>0.40210421472631</v>
       </c>
       <c r="T86">
-        <v>3.949804447310623</v>
+        <v>3.908600944906585</v>
       </c>
       <c r="U86">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V86">
-        <v>0.2097694805351117</v>
+        <v>0.22</v>
       </c>
       <c r="W86">
-        <v>0.09127162499819459</v>
+        <v>0.017628</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y86">
-        <v>0.9534976387959622</v>
+        <v>4.872963596501488</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8322,13 +8322,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.1406709246870101</v>
+        <v>0.07905786311530719</v>
       </c>
       <c r="C87">
-        <v>-31.64428187718804</v>
+        <v>168.1815159730501</v>
       </c>
       <c r="D87">
-        <v>230.200718122812</v>
+        <v>430.0265159730501</v>
       </c>
       <c r="E87">
         <v>99.04500000000002</v>
@@ -8355,45 +8355,45 @@
         <v>30.5</v>
       </c>
       <c r="M87">
-        <v>32.3682975</v>
+        <v>6.333537</v>
       </c>
       <c r="N87">
-        <v>-1.868297499999997</v>
+        <v>24.166463</v>
       </c>
       <c r="O87">
-        <v>-0.4110254499999993</v>
+        <v>5.31662186</v>
       </c>
       <c r="P87">
-        <v>-1.457272049999998</v>
+        <v>18.84984114</v>
       </c>
       <c r="Q87">
-        <v>3.942727950000001</v>
+        <v>24.24984114</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.4189850645901779</v>
+        <v>0.4271604207687146</v>
       </c>
       <c r="T87">
-        <v>4.213124743797998</v>
+        <v>4.157922889380509</v>
       </c>
       <c r="U87">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V87">
-        <v>0.2073016042935221</v>
+        <v>0.22</v>
       </c>
       <c r="W87">
-        <v>0.09155666470409819</v>
+        <v>0.017628</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y87">
-        <v>0.9422800195160095</v>
+        <v>4.815634613013234</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8404,13 +8404,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.1416679246870101</v>
+        <v>0.07897153187440474</v>
       </c>
       <c r="C88">
-        <v>-36.76470207370872</v>
+        <v>165.4173695180508</v>
       </c>
       <c r="D88">
-        <v>228.3772979262912</v>
+        <v>430.5593695180508</v>
       </c>
       <c r="E88">
         <v>102.342</v>
@@ -8437,45 +8437,45 @@
         <v>30.5</v>
       </c>
       <c r="M88">
-        <v>32.749101</v>
+        <v>6.408049199999999</v>
       </c>
       <c r="N88">
-        <v>-2.249100999999996</v>
+        <v>24.0919508</v>
       </c>
       <c r="O88">
-        <v>-0.4948022199999991</v>
+        <v>5.300229176</v>
       </c>
       <c r="P88">
-        <v>-1.754298779999997</v>
+        <v>18.791721624</v>
       </c>
       <c r="Q88">
-        <v>3.645701220000002</v>
+        <v>24.191721624</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.4477839977751906</v>
+        <v>0.4557960848171768</v>
       </c>
       <c r="T88">
-        <v>4.514062225497855</v>
+        <v>4.442862254493564</v>
       </c>
       <c r="U88">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V88">
-        <v>0.2048911205226672</v>
+        <v>0.22</v>
       </c>
       <c r="W88">
-        <v>0.09183507557963193</v>
+        <v>0.017628</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y88">
-        <v>0.9313232751030327</v>
+        <v>4.759638861699127</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8486,13 +8486,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.1426649246870101</v>
+        <v>0.07888520063350231</v>
       </c>
       <c r="C89">
-        <v>-41.85646265543971</v>
+        <v>162.6545452380927</v>
       </c>
       <c r="D89">
-        <v>226.5825373445603</v>
+        <v>431.0935452380927</v>
       </c>
       <c r="E89">
         <v>105.639</v>
@@ -8519,45 +8519,45 @@
         <v>30.5</v>
       </c>
       <c r="M89">
-        <v>33.12990449999999</v>
+        <v>6.4825614</v>
       </c>
       <c r="N89">
-        <v>-2.629904499999995</v>
+        <v>24.0174386</v>
       </c>
       <c r="O89">
-        <v>-0.5785789899999989</v>
+        <v>5.283836492</v>
       </c>
       <c r="P89">
-        <v>-2.051325509999996</v>
+        <v>18.733602108</v>
       </c>
       <c r="Q89">
-        <v>3.348674490000002</v>
+        <v>24.133602108</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.4810135360655899</v>
+        <v>0.4888372356423255</v>
       </c>
       <c r="T89">
-        <v>4.861297781305383</v>
+        <v>4.771638445008628</v>
       </c>
       <c r="U89">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V89">
-        <v>0.202536050171832</v>
+        <v>0.22</v>
       </c>
       <c r="W89">
-        <v>0.0921070862051534</v>
+        <v>0.017628</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y89">
-        <v>0.9206184098719634</v>
+        <v>4.704930369035918</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.1436619246870102</v>
+        <v>0.07879886939259988</v>
       </c>
       <c r="C90">
-        <v>-46.92023404016203</v>
+        <v>159.8930480603788</v>
       </c>
       <c r="D90">
-        <v>224.8157659598379</v>
+        <v>431.6290480603788</v>
       </c>
       <c r="E90">
         <v>108.936</v>
@@ -8601,45 +8601,45 @@
         <v>30.5</v>
       </c>
       <c r="M90">
-        <v>33.51070799999999</v>
+        <v>6.557073599999999</v>
       </c>
       <c r="N90">
-        <v>-3.010707999999994</v>
+        <v>23.9429264</v>
       </c>
       <c r="O90">
-        <v>-0.6623557599999986</v>
+        <v>5.267443808</v>
       </c>
       <c r="P90">
-        <v>-2.348352239999995</v>
+        <v>18.675482592</v>
       </c>
       <c r="Q90">
-        <v>3.051647760000003</v>
+        <v>24.075482592</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.5197813307377225</v>
+        <v>0.5273852449383324</v>
       </c>
       <c r="T90">
-        <v>5.266405929747498</v>
+        <v>5.155210667276203</v>
       </c>
       <c r="U90">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V90">
-        <v>0.200234504147152</v>
+        <v>0.22</v>
       </c>
       <c r="W90">
-        <v>0.09237291477100393</v>
+        <v>0.017628</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y90">
-        <v>0.9101568370325093</v>
+        <v>4.651465251205966</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8650,13 +8650,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.1446589246870101</v>
+        <v>0.07871253815169744</v>
       </c>
       <c r="C91">
-        <v>-51.95666589718223</v>
+        <v>157.1328829366249</v>
       </c>
       <c r="D91">
-        <v>223.0763341028178</v>
+        <v>432.1658829366249</v>
       </c>
       <c r="E91">
         <v>112.233</v>
@@ -8683,45 +8683,45 @@
         <v>30.5</v>
       </c>
       <c r="M91">
-        <v>33.8915115</v>
+        <v>6.631585799999999</v>
       </c>
       <c r="N91">
-        <v>-3.3915115</v>
+        <v>23.8684142</v>
       </c>
       <c r="O91">
-        <v>-0.74613253</v>
+        <v>5.251051124</v>
       </c>
       <c r="P91">
-        <v>-2.64537897</v>
+        <v>18.617363076</v>
       </c>
       <c r="Q91">
-        <v>2.754621029999999</v>
+        <v>24.017363076</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.5655978153502427</v>
+        <v>0.5729419831972496</v>
       </c>
       <c r="T91">
-        <v>5.745170105179089</v>
+        <v>5.608523293592428</v>
       </c>
       <c r="U91">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V91">
-        <v>0.1979846782578582</v>
+        <v>0.22</v>
       </c>
       <c r="W91">
-        <v>0.09263276966121738</v>
+        <v>0.017628</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y91">
-        <v>0.8999303557175371</v>
+        <v>4.599201596698033</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8732,13 +8732,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.1456559246870102</v>
+        <v>0.07862620691079501</v>
       </c>
       <c r="C92">
-        <v>-56.96638794383961</v>
+        <v>154.3740548432116</v>
       </c>
       <c r="D92">
-        <v>221.3636120561604</v>
+        <v>432.7040548432117</v>
       </c>
       <c r="E92">
         <v>115.53</v>
@@ -8765,45 +8765,45 @@
         <v>30.5</v>
       </c>
       <c r="M92">
-        <v>34.272315</v>
+        <v>6.706098</v>
       </c>
       <c r="N92">
-        <v>-3.772314999999999</v>
+        <v>23.793902</v>
       </c>
       <c r="O92">
-        <v>-0.8299092999999997</v>
+        <v>5.23465844</v>
       </c>
       <c r="P92">
-        <v>-2.942405699999999</v>
+        <v>18.55924356</v>
       </c>
       <c r="Q92">
-        <v>2.457594299999999</v>
+        <v>23.95924356</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.620577596885267</v>
+        <v>0.6276100691079504</v>
       </c>
       <c r="T92">
-        <v>6.319687115696999</v>
+        <v>6.152498445171897</v>
       </c>
       <c r="U92">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V92">
-        <v>0.1957848484994375</v>
+        <v>0.22</v>
       </c>
       <c r="W92">
-        <v>0.09288684999831495</v>
+        <v>0.017628</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y92">
-        <v>0.8899311295428979</v>
+        <v>4.548099356734721</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.1466529246870101</v>
+        <v>0.142376271208309</v>
       </c>
       <c r="C93">
-        <v>-61.95001070559962</v>
+        <v>-56.20942130752235</v>
       </c>
       <c r="D93">
-        <v>219.6769892944004</v>
+        <v>225.4175786924776</v>
       </c>
       <c r="E93">
         <v>118.827</v>
@@ -8847,37 +8847,37 @@
         <v>30.5</v>
       </c>
       <c r="M93">
-        <v>34.6531185</v>
+        <v>32.702943</v>
       </c>
       <c r="N93">
-        <v>-4.153118499999998</v>
+        <v>-2.202942999999998</v>
       </c>
       <c r="O93">
-        <v>-0.9136860699999996</v>
+        <v>-0.4846474599999995</v>
       </c>
       <c r="P93">
-        <v>-3.239432429999998</v>
+        <v>-1.718295539999998</v>
       </c>
       <c r="Q93">
-        <v>2.16056757</v>
+        <v>3.681704460000001</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.6877751076502968</v>
+        <v>0.7059789578869506</v>
       </c>
       <c r="T93">
-        <v>7.021874572996667</v>
+        <v>6.932308592948203</v>
       </c>
       <c r="U93">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V93">
-        <v>0.1936333666477953</v>
+        <v>0.2051803105304621</v>
       </c>
       <c r="W93">
-        <v>0.09313534615217962</v>
+        <v>0.08663534615217963</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.8801516665808879</v>
+        <v>0.9326377751384639</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8896,13 +8896,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.1476499246870102</v>
+        <v>0.143373271208309</v>
       </c>
       <c r="C94">
-        <v>-66.90812624166409</v>
+        <v>-61.18267880412088</v>
       </c>
       <c r="D94">
-        <v>218.0158737583359</v>
+        <v>223.7413211958791</v>
       </c>
       <c r="E94">
         <v>122.124</v>
@@ -8929,37 +8929,37 @@
         <v>30.5</v>
       </c>
       <c r="M94">
-        <v>35.033922</v>
+        <v>33.062316</v>
       </c>
       <c r="N94">
-        <v>-4.533921999999997</v>
+        <v>-2.562316000000003</v>
       </c>
       <c r="O94">
-        <v>-0.9974628399999993</v>
+        <v>-0.5637095200000006</v>
       </c>
       <c r="P94">
-        <v>-3.536459159999997</v>
+        <v>-1.998606480000002</v>
       </c>
       <c r="Q94">
-        <v>1.863540840000001</v>
+        <v>3.401393519999997</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.7717719961065841</v>
+        <v>0.7930638276228198</v>
       </c>
       <c r="T94">
-        <v>7.899608894621251</v>
+        <v>7.798847167066731</v>
       </c>
       <c r="U94">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V94">
-        <v>0.1915286561407541</v>
+        <v>0.2029500897638266</v>
       </c>
       <c r="W94">
-        <v>0.09337844021574289</v>
+        <v>0.08687844021574291</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.8705848006397914</v>
+        <v>0.9225004080173935</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.1486469246870102</v>
+        <v>0.144370271208309</v>
       </c>
       <c r="C95">
-        <v>-71.84130883790533</v>
+        <v>-66.1311902376639</v>
       </c>
       <c r="D95">
-        <v>216.3796911620946</v>
+        <v>222.0898097623361</v>
       </c>
       <c r="E95">
         <v>125.421</v>
@@ -9011,37 +9011,37 @@
         <v>30.5</v>
       </c>
       <c r="M95">
-        <v>35.4147255</v>
+        <v>33.421689</v>
       </c>
       <c r="N95">
-        <v>-4.914725499999996</v>
+        <v>-2.921689000000001</v>
       </c>
       <c r="O95">
-        <v>-1.081239609999999</v>
+        <v>-0.6427715800000001</v>
       </c>
       <c r="P95">
-        <v>-3.833485889999997</v>
+        <v>-2.27891742</v>
       </c>
       <c r="Q95">
-        <v>1.566514110000002</v>
+        <v>3.121082579999998</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.8797679955503819</v>
+        <v>0.905030088711794</v>
       </c>
       <c r="T95">
-        <v>9.028124450995717</v>
+        <v>8.912968190933407</v>
       </c>
       <c r="U95">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V95">
-        <v>0.1894692082252621</v>
+        <v>0.200767830734108</v>
       </c>
       <c r="W95">
-        <v>0.09361630644998221</v>
+        <v>0.08711630644998222</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.8612236737511916</v>
+        <v>0.9125810487914001</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9060,13 +9060,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.1496439246870102</v>
+        <v>0.145367271208309</v>
       </c>
       <c r="C96">
-        <v>-76.75011566883239</v>
+        <v>-71.05549957051639</v>
       </c>
       <c r="D96">
-        <v>214.7678843311676</v>
+        <v>220.4625004294836</v>
       </c>
       <c r="E96">
         <v>128.718</v>
@@ -9093,37 +9093,37 @@
         <v>30.5</v>
       </c>
       <c r="M96">
-        <v>35.79552899999999</v>
+        <v>33.781062</v>
       </c>
       <c r="N96">
-        <v>-5.295528999999995</v>
+        <v>-3.281061999999999</v>
       </c>
       <c r="O96">
-        <v>-1.165016379999999</v>
+        <v>-0.7218336399999997</v>
       </c>
       <c r="P96">
-        <v>-4.130512619999996</v>
+        <v>-2.559228359999999</v>
       </c>
       <c r="Q96">
-        <v>1.269487380000003</v>
+        <v>2.84077164</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.023762661475446</v>
+        <v>1.054318436830427</v>
       </c>
       <c r="T96">
-        <v>10.53281185949501</v>
+        <v>10.39846288942231</v>
       </c>
       <c r="U96">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V96">
-        <v>0.1874535783505253</v>
+        <v>0.1986320027475749</v>
       </c>
       <c r="W96">
-        <v>0.09384911170051431</v>
+        <v>0.08734911170051433</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.852061719775115</v>
+        <v>0.9028727397617043</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9142,13 +9142,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.1506409246870102</v>
+        <v>0.146364271208309</v>
       </c>
       <c r="C97">
-        <v>-81.63508743018892</v>
+        <v>-75.95613493800144</v>
       </c>
       <c r="D97">
-        <v>213.1799125698111</v>
+        <v>218.8588650619986</v>
       </c>
       <c r="E97">
         <v>132.015</v>
@@ -9175,37 +9175,37 @@
         <v>30.5</v>
       </c>
       <c r="M97">
-        <v>36.1763325</v>
+        <v>34.140435</v>
       </c>
       <c r="N97">
-        <v>-5.676332500000001</v>
+        <v>-3.640435000000004</v>
       </c>
       <c r="O97">
-        <v>-1.24879315</v>
+        <v>-0.8008957000000008</v>
       </c>
       <c r="P97">
-        <v>-4.427539350000001</v>
+        <v>-2.839539300000003</v>
       </c>
       <c r="Q97">
-        <v>0.9724606499999977</v>
+        <v>2.560460699999996</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.225355193770536</v>
+        <v>1.263322124196513</v>
       </c>
       <c r="T97">
-        <v>12.63937423139401</v>
+        <v>12.47815546730678</v>
       </c>
       <c r="U97">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V97">
-        <v>0.1854803827889408</v>
+        <v>0.1965411395607584</v>
       </c>
       <c r="W97">
-        <v>0.09407701578787732</v>
+        <v>0.08757701578787734</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.8430926490406401</v>
+        <v>0.8933688161852653</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9224,13 +9224,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.1516379246870102</v>
+        <v>0.147361271208309</v>
       </c>
       <c r="C98">
-        <v>-86.49674894369352</v>
+        <v>-80.83360921986994</v>
       </c>
       <c r="D98">
-        <v>211.6152510563065</v>
+        <v>217.2783907801301</v>
       </c>
       <c r="E98">
         <v>135.312</v>
@@ -9257,37 +9257,37 @@
         <v>30.5</v>
       </c>
       <c r="M98">
-        <v>36.557136</v>
+        <v>34.499808</v>
       </c>
       <c r="N98">
-        <v>-6.057136</v>
+        <v>-3.999808000000002</v>
       </c>
       <c r="O98">
-        <v>-1.33256992</v>
+        <v>-0.8799577600000004</v>
       </c>
       <c r="P98">
-        <v>-4.72456608</v>
+        <v>-3.119850240000001</v>
       </c>
       <c r="Q98">
-        <v>0.6754339199999988</v>
+        <v>2.280149759999997</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.527743992213166</v>
+        <v>1.576827655245638</v>
       </c>
       <c r="T98">
-        <v>15.79921778924248</v>
+        <v>15.59769433413344</v>
       </c>
       <c r="U98">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V98">
-        <v>0.1835482954682227</v>
+        <v>0.1944938360236671</v>
       </c>
       <c r="W98">
-        <v>0.09430017187342027</v>
+        <v>0.08780017187342029</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.8343104339464666</v>
+        <v>0.8840628910166688</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9306,13 +9306,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.1526349246870101</v>
+        <v>0.148358271208309</v>
       </c>
       <c r="C99">
-        <v>-91.33560973534242</v>
+        <v>-85.68842058718718</v>
       </c>
       <c r="D99">
-        <v>210.0733902646575</v>
+        <v>215.7205794128128</v>
       </c>
       <c r="E99">
         <v>138.609</v>
@@ -9339,37 +9339,37 @@
         <v>30.5</v>
       </c>
       <c r="M99">
-        <v>36.93793949999999</v>
+        <v>34.859181</v>
       </c>
       <c r="N99">
-        <v>-6.437939499999992</v>
+        <v>-4.359181</v>
       </c>
       <c r="O99">
-        <v>-1.416346689999998</v>
+        <v>-0.9590198199999999</v>
       </c>
       <c r="P99">
-        <v>-5.021592809999993</v>
+        <v>-3.40016118</v>
       </c>
       <c r="Q99">
-        <v>0.3784071900000052</v>
+        <v>1.999838819999999</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>2.031725322950888</v>
+        <v>2.09933687366085</v>
       </c>
       <c r="T99">
-        <v>21.06562371898998</v>
+        <v>20.79692577884459</v>
       </c>
       <c r="U99">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V99">
-        <v>0.1816560449994782</v>
+        <v>0.1924887449306397</v>
       </c>
       <c r="W99">
-        <v>0.09451872680256027</v>
+        <v>0.08801872680256029</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.8257092954521734</v>
+        <v>0.8749488405938166</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9388,13 +9388,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.1536319246870101</v>
+        <v>0.149355271208309</v>
       </c>
       <c r="C100">
-        <v>-96.15216458861372</v>
+        <v>-90.52105302585986</v>
       </c>
       <c r="D100">
-        <v>208.5538354113863</v>
+        <v>214.1849469741401</v>
       </c>
       <c r="E100">
         <v>141.906</v>
@@ -9421,37 +9421,37 @@
         <v>30.5</v>
       </c>
       <c r="M100">
-        <v>37.318743</v>
+        <v>35.218554</v>
       </c>
       <c r="N100">
-        <v>-6.818742999999998</v>
+        <v>-4.718553999999997</v>
       </c>
       <c r="O100">
-        <v>-1.50012346</v>
+        <v>-1.038081879999999</v>
       </c>
       <c r="P100">
-        <v>-5.318619539999998</v>
+        <v>-3.680472119999998</v>
       </c>
       <c r="Q100">
-        <v>0.0813804600000001</v>
+        <v>1.71952788</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>3.039687984426332</v>
+        <v>3.144355310491275</v>
       </c>
       <c r="T100">
-        <v>31.59843557848496</v>
+        <v>31.19538866826688</v>
       </c>
       <c r="U100">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V100">
-        <v>0.1798024118872385</v>
+        <v>0.1905245740640005</v>
       </c>
       <c r="W100">
-        <v>0.09473282142702394</v>
+        <v>0.08823282142702395</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.8172836903965388</v>
+        <v>0.8660207912000022</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9470,13 +9470,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.1546289246870101</v>
+        <v>0.150352271208309</v>
       </c>
       <c r="C101">
-        <v>-100.9468940738339</v>
+        <v>-95.33197683796101</v>
       </c>
       <c r="D101">
-        <v>207.0561059261661</v>
+        <v>212.6710231620389</v>
       </c>
       <c r="E101">
         <v>145.203</v>
@@ -9503,37 +9503,37 @@
         <v>30.5</v>
       </c>
       <c r="M101">
-        <v>37.69954649999999</v>
+        <v>35.577927</v>
       </c>
       <c r="N101">
-        <v>-7.19954649999999</v>
+        <v>-5.077926999999995</v>
       </c>
       <c r="O101">
-        <v>-1.583900229999998</v>
+        <v>-1.117143939999999</v>
       </c>
       <c r="P101">
-        <v>-5.615646269999992</v>
+        <v>-3.960783059999996</v>
       </c>
       <c r="Q101">
-        <v>-0.2156462699999935</v>
+        <v>1.439216940000002</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>6.063575968852663</v>
+        <v>6.279410620982548</v>
       </c>
       <c r="T101">
-        <v>63.19687115696993</v>
+        <v>62.39077733653375</v>
       </c>
       <c r="U101">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V101">
-        <v>0.1779862259085796</v>
+        <v>0.1886000834168894</v>
       </c>
       <c r="W101">
-        <v>0.09494259090755905</v>
+        <v>0.08844259090755906</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9541,7 +9541,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.8090282995844528</v>
+        <v>0.8572731064404062</v>
       </c>
       <c r="Z101">
         <v>0</v>
